--- a/MHA/Mental_Healthcare_Access_Tables.xlsx
+++ b/MHA/Mental_Healthcare_Access_Tables.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah's PC\Desktop\Bootcamp\Project1\Project1_Team3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah's PC\Desktop\Bootcamp\Project1\Project1_Team3\MHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="67">
   <si>
     <t>New Jersey</t>
   </si>
@@ -223,12 +224,15 @@
   <si>
     <t>Adult Suicidal Ideation</t>
   </si>
+  <si>
+    <t>RankSort descending</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +260,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -501,10 +513,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -575,10 +588,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -588,10 +597,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -601,8 +606,41 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -883,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AS3" sqref="AS3"/>
     </sheetView>
   </sheetViews>
@@ -943,66 +981,66 @@
       </c>
     </row>
     <row r="2" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="F2" s="24" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="F2" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="K2" s="24" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="K2" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="P2" s="24" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="P2" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="U2" s="24" t="s">
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="U2" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Z2" s="24" t="s">
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Z2" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AE2" s="24" t="s">
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AE2" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AJ2" s="24" t="s">
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AJ2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AO2" s="24" t="s">
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AO2" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AT2" s="24" t="s">
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AT2" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="25"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
     </row>
     <row r="3" spans="1:49" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
@@ -7259,7 +7297,7 @@
       <c r="D55" s="13">
         <v>107700</v>
       </c>
-      <c r="F55" s="26" t="s">
+      <c r="F55" s="24" t="s">
         <v>51</v>
       </c>
       <c r="G55" s="3">
@@ -7268,7 +7306,7 @@
       <c r="H55" s="18">
         <v>4.19E-2</v>
       </c>
-      <c r="I55" s="27">
+      <c r="I55" s="25">
         <v>10308000</v>
       </c>
       <c r="K55" s="11" t="s">
@@ -7333,2642 +7371,2642 @@
       </c>
     </row>
     <row r="56" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
     </row>
     <row r="57" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="F57" s="29"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
     </row>
     <row r="58" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
     </row>
     <row r="59" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="33"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="29"/>
     </row>
     <row r="60" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="33"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="29"/>
     </row>
     <row r="61" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="33"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29"/>
     </row>
     <row r="62" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="33"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="29"/>
     </row>
     <row r="63" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="33"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="29"/>
     </row>
     <row r="64" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="33"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="29"/>
     </row>
     <row r="65" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="33"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="29"/>
     </row>
     <row r="66" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="33"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="29"/>
     </row>
     <row r="67" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="33"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="29"/>
     </row>
     <row r="68" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="33"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="29"/>
     </row>
     <row r="69" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="33"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="29"/>
     </row>
     <row r="70" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="33"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="29"/>
     </row>
     <row r="71" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="33"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="29"/>
     </row>
     <row r="72" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="33"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="29"/>
     </row>
     <row r="73" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="33"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29"/>
     </row>
     <row r="74" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="33"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="29"/>
     </row>
     <row r="75" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="33"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="29"/>
     </row>
     <row r="76" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="33"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="29"/>
     </row>
     <row r="77" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="33"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="29"/>
     </row>
     <row r="78" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="33"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="29"/>
     </row>
     <row r="79" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="33"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="29"/>
     </row>
     <row r="80" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="33"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="29"/>
     </row>
     <row r="81" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="33"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="29"/>
     </row>
     <row r="82" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="33"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="29"/>
     </row>
     <row r="83" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="33"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="29"/>
     </row>
     <row r="84" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="33"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="29"/>
     </row>
     <row r="85" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="33"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="29"/>
     </row>
     <row r="86" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="33"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="29"/>
     </row>
     <row r="87" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="33"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="29"/>
     </row>
     <row r="88" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="33"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="29"/>
     </row>
     <row r="89" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="33"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="29"/>
     </row>
     <row r="90" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="33"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="29"/>
     </row>
     <row r="91" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="33"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="29"/>
     </row>
     <row r="92" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="33"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="29"/>
     </row>
     <row r="93" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="33"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="29"/>
     </row>
     <row r="94" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="33"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="29"/>
     </row>
     <row r="95" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F95" s="32"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="33"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="29"/>
     </row>
     <row r="96" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F96" s="32"/>
-      <c r="G96" s="32"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="33"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="29"/>
     </row>
     <row r="97" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F97" s="32"/>
-      <c r="G97" s="32"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="33"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="29"/>
     </row>
     <row r="98" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="33"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="29"/>
     </row>
     <row r="99" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="33"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="29"/>
     </row>
     <row r="100" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="33"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="29"/>
     </row>
     <row r="101" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="33"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="29"/>
     </row>
     <row r="102" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="33"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="29"/>
     </row>
     <row r="103" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F103" s="32"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="33"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="29"/>
     </row>
     <row r="104" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="33"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="29"/>
     </row>
     <row r="105" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="33"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="29"/>
     </row>
     <row r="106" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="33"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="29"/>
     </row>
     <row r="107" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F107" s="32"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="33"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="29"/>
     </row>
     <row r="108" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F108" s="32"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="33"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="29"/>
     </row>
     <row r="109" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F109" s="32"/>
-      <c r="G109" s="32"/>
-      <c r="H109" s="32"/>
-      <c r="I109" s="33"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="29"/>
     </row>
     <row r="110" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F110" s="32"/>
-      <c r="G110" s="32"/>
-      <c r="H110" s="32"/>
-      <c r="I110" s="33"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="29"/>
     </row>
     <row r="111" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
     </row>
     <row r="112" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F112" s="29"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="30"/>
-      <c r="I112" s="30"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="33"/>
     </row>
     <row r="113" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
     </row>
     <row r="114" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F114" s="32"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="32"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
     </row>
     <row r="115" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F115" s="32"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="32"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="28"/>
     </row>
     <row r="116" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="32"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
     </row>
     <row r="117" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F117" s="32"/>
-      <c r="G117" s="32"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="32"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="28"/>
     </row>
     <row r="118" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F118" s="32"/>
-      <c r="G118" s="32"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="32"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="28"/>
     </row>
     <row r="119" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F119" s="32"/>
-      <c r="G119" s="32"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="28"/>
+      <c r="I119" s="28"/>
     </row>
     <row r="120" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F120" s="32"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="32"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28"/>
     </row>
     <row r="121" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F121" s="32"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="32"/>
-      <c r="I121" s="32"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="28"/>
+      <c r="I121" s="28"/>
     </row>
     <row r="122" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="32"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="28"/>
+      <c r="I122" s="28"/>
     </row>
     <row r="123" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F123" s="32"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="32"/>
-      <c r="I123" s="32"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="28"/>
+      <c r="I123" s="28"/>
     </row>
     <row r="124" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F124" s="32"/>
-      <c r="G124" s="32"/>
-      <c r="H124" s="32"/>
-      <c r="I124" s="32"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="28"/>
+      <c r="I124" s="28"/>
     </row>
     <row r="125" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="32"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="28"/>
+      <c r="I125" s="28"/>
     </row>
     <row r="126" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F126" s="32"/>
-      <c r="G126" s="32"/>
-      <c r="H126" s="32"/>
-      <c r="I126" s="32"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="28"/>
+      <c r="I126" s="28"/>
     </row>
     <row r="127" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F127" s="32"/>
-      <c r="G127" s="32"/>
-      <c r="H127" s="32"/>
-      <c r="I127" s="32"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="28"/>
+      <c r="I127" s="28"/>
     </row>
     <row r="128" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F128" s="32"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="32"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="28"/>
+      <c r="I128" s="28"/>
     </row>
     <row r="129" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F129" s="32"/>
-      <c r="G129" s="32"/>
-      <c r="H129" s="32"/>
-      <c r="I129" s="32"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="28"/>
+      <c r="I129" s="28"/>
     </row>
     <row r="130" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F130" s="32"/>
-      <c r="G130" s="32"/>
-      <c r="H130" s="32"/>
-      <c r="I130" s="32"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="28"/>
+      <c r="I130" s="28"/>
     </row>
     <row r="131" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F131" s="32"/>
-      <c r="G131" s="32"/>
-      <c r="H131" s="32"/>
-      <c r="I131" s="32"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28"/>
+      <c r="H131" s="28"/>
+      <c r="I131" s="28"/>
     </row>
     <row r="132" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F132" s="32"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="32"/>
-      <c r="I132" s="32"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="28"/>
+      <c r="H132" s="28"/>
+      <c r="I132" s="28"/>
     </row>
     <row r="133" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F133" s="32"/>
-      <c r="G133" s="32"/>
-      <c r="H133" s="32"/>
-      <c r="I133" s="32"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28"/>
+      <c r="H133" s="28"/>
+      <c r="I133" s="28"/>
     </row>
     <row r="134" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F134" s="32"/>
-      <c r="G134" s="32"/>
-      <c r="H134" s="32"/>
-      <c r="I134" s="32"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="28"/>
     </row>
     <row r="135" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F135" s="32"/>
-      <c r="G135" s="32"/>
-      <c r="H135" s="32"/>
-      <c r="I135" s="32"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="28"/>
     </row>
     <row r="136" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F136" s="32"/>
-      <c r="G136" s="32"/>
-      <c r="H136" s="32"/>
-      <c r="I136" s="32"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="28"/>
+      <c r="H136" s="28"/>
+      <c r="I136" s="28"/>
     </row>
     <row r="137" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F137" s="32"/>
-      <c r="G137" s="32"/>
-      <c r="H137" s="32"/>
-      <c r="I137" s="32"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="28"/>
+      <c r="I137" s="28"/>
     </row>
     <row r="138" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F138" s="32"/>
-      <c r="G138" s="32"/>
-      <c r="H138" s="32"/>
-      <c r="I138" s="32"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="28"/>
+      <c r="I138" s="28"/>
     </row>
     <row r="139" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F139" s="32"/>
-      <c r="G139" s="32"/>
-      <c r="H139" s="32"/>
-      <c r="I139" s="32"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="28"/>
+      <c r="H139" s="28"/>
+      <c r="I139" s="28"/>
     </row>
     <row r="140" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F140" s="32"/>
-      <c r="G140" s="32"/>
-      <c r="H140" s="32"/>
-      <c r="I140" s="32"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="28"/>
+      <c r="I140" s="28"/>
     </row>
     <row r="141" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F141" s="32"/>
-      <c r="G141" s="32"/>
-      <c r="H141" s="32"/>
-      <c r="I141" s="32"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="28"/>
+      <c r="H141" s="28"/>
+      <c r="I141" s="28"/>
     </row>
     <row r="142" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F142" s="32"/>
-      <c r="G142" s="32"/>
-      <c r="H142" s="32"/>
-      <c r="I142" s="32"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="28"/>
+      <c r="H142" s="28"/>
+      <c r="I142" s="28"/>
     </row>
     <row r="143" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F143" s="32"/>
-      <c r="G143" s="32"/>
-      <c r="H143" s="32"/>
-      <c r="I143" s="32"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="28"/>
+      <c r="H143" s="28"/>
+      <c r="I143" s="28"/>
     </row>
     <row r="144" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F144" s="32"/>
-      <c r="G144" s="32"/>
-      <c r="H144" s="32"/>
-      <c r="I144" s="32"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="28"/>
+      <c r="H144" s="28"/>
+      <c r="I144" s="28"/>
     </row>
     <row r="145" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F145" s="32"/>
-      <c r="G145" s="32"/>
-      <c r="H145" s="32"/>
-      <c r="I145" s="32"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="28"/>
+      <c r="H145" s="28"/>
+      <c r="I145" s="28"/>
     </row>
     <row r="146" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F146" s="32"/>
-      <c r="G146" s="32"/>
-      <c r="H146" s="32"/>
-      <c r="I146" s="32"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="28"/>
+      <c r="H146" s="28"/>
+      <c r="I146" s="28"/>
     </row>
     <row r="147" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F147" s="32"/>
-      <c r="G147" s="32"/>
-      <c r="H147" s="32"/>
-      <c r="I147" s="32"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="28"/>
+      <c r="H147" s="28"/>
+      <c r="I147" s="28"/>
     </row>
     <row r="148" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F148" s="32"/>
-      <c r="G148" s="32"/>
-      <c r="H148" s="32"/>
-      <c r="I148" s="32"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="28"/>
+      <c r="H148" s="28"/>
+      <c r="I148" s="28"/>
     </row>
     <row r="149" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F149" s="32"/>
-      <c r="G149" s="32"/>
-      <c r="H149" s="32"/>
-      <c r="I149" s="32"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="28"/>
+      <c r="H149" s="28"/>
+      <c r="I149" s="28"/>
     </row>
     <row r="150" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F150" s="32"/>
-      <c r="G150" s="32"/>
-      <c r="H150" s="32"/>
-      <c r="I150" s="32"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28"/>
     </row>
     <row r="151" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F151" s="32"/>
-      <c r="G151" s="32"/>
-      <c r="H151" s="32"/>
-      <c r="I151" s="32"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="28"/>
+      <c r="H151" s="28"/>
+      <c r="I151" s="28"/>
     </row>
     <row r="152" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F152" s="32"/>
-      <c r="G152" s="32"/>
-      <c r="H152" s="32"/>
-      <c r="I152" s="32"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="28"/>
+      <c r="H152" s="28"/>
+      <c r="I152" s="28"/>
     </row>
     <row r="153" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F153" s="32"/>
-      <c r="G153" s="32"/>
-      <c r="H153" s="32"/>
-      <c r="I153" s="32"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="28"/>
+      <c r="H153" s="28"/>
+      <c r="I153" s="28"/>
     </row>
     <row r="154" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F154" s="32"/>
-      <c r="G154" s="32"/>
-      <c r="H154" s="32"/>
-      <c r="I154" s="32"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="28"/>
+      <c r="H154" s="28"/>
+      <c r="I154" s="28"/>
     </row>
     <row r="155" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F155" s="32"/>
-      <c r="G155" s="32"/>
-      <c r="H155" s="32"/>
-      <c r="I155" s="32"/>
+      <c r="F155" s="28"/>
+      <c r="G155" s="28"/>
+      <c r="H155" s="28"/>
+      <c r="I155" s="28"/>
     </row>
     <row r="156" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F156" s="32"/>
-      <c r="G156" s="32"/>
-      <c r="H156" s="32"/>
-      <c r="I156" s="32"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="28"/>
+      <c r="H156" s="28"/>
+      <c r="I156" s="28"/>
     </row>
     <row r="157" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F157" s="32"/>
-      <c r="G157" s="32"/>
-      <c r="H157" s="32"/>
-      <c r="I157" s="32"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="28"/>
+      <c r="H157" s="28"/>
+      <c r="I157" s="28"/>
     </row>
     <row r="158" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F158" s="32"/>
-      <c r="G158" s="32"/>
-      <c r="H158" s="32"/>
-      <c r="I158" s="32"/>
+      <c r="F158" s="28"/>
+      <c r="G158" s="28"/>
+      <c r="H158" s="28"/>
+      <c r="I158" s="28"/>
     </row>
     <row r="159" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F159" s="32"/>
-      <c r="G159" s="32"/>
-      <c r="H159" s="32"/>
-      <c r="I159" s="32"/>
+      <c r="F159" s="28"/>
+      <c r="G159" s="28"/>
+      <c r="H159" s="28"/>
+      <c r="I159" s="28"/>
     </row>
     <row r="160" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F160" s="32"/>
-      <c r="G160" s="32"/>
-      <c r="H160" s="32"/>
-      <c r="I160" s="32"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="28"/>
+      <c r="H160" s="28"/>
+      <c r="I160" s="28"/>
     </row>
     <row r="161" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F161" s="32"/>
-      <c r="G161" s="32"/>
-      <c r="H161" s="32"/>
-      <c r="I161" s="32"/>
+      <c r="F161" s="28"/>
+      <c r="G161" s="28"/>
+      <c r="H161" s="28"/>
+      <c r="I161" s="28"/>
     </row>
     <row r="162" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F162" s="32"/>
-      <c r="G162" s="32"/>
-      <c r="H162" s="32"/>
-      <c r="I162" s="32"/>
+      <c r="F162" s="28"/>
+      <c r="G162" s="28"/>
+      <c r="H162" s="28"/>
+      <c r="I162" s="28"/>
     </row>
     <row r="163" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F163" s="32"/>
-      <c r="G163" s="32"/>
-      <c r="H163" s="32"/>
-      <c r="I163" s="32"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="28"/>
+      <c r="H163" s="28"/>
+      <c r="I163" s="28"/>
     </row>
     <row r="164" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F164" s="32"/>
-      <c r="G164" s="32"/>
-      <c r="H164" s="32"/>
-      <c r="I164" s="32"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="28"/>
+      <c r="H164" s="28"/>
+      <c r="I164" s="28"/>
     </row>
     <row r="165" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F165" s="28"/>
-      <c r="G165" s="28"/>
-      <c r="H165" s="28"/>
-      <c r="I165" s="28"/>
+      <c r="F165" s="26"/>
+      <c r="G165" s="26"/>
+      <c r="H165" s="26"/>
+      <c r="I165" s="26"/>
     </row>
     <row r="166" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F166" s="29"/>
-      <c r="G166" s="30"/>
-      <c r="H166" s="30"/>
-      <c r="I166" s="30"/>
+      <c r="F166" s="32"/>
+      <c r="G166" s="33"/>
+      <c r="H166" s="33"/>
+      <c r="I166" s="33"/>
     </row>
     <row r="167" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F167" s="31"/>
-      <c r="G167" s="31"/>
-      <c r="H167" s="31"/>
-      <c r="I167" s="31"/>
+      <c r="F167" s="27"/>
+      <c r="G167" s="27"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="27"/>
     </row>
     <row r="168" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F168" s="32"/>
-      <c r="G168" s="32"/>
-      <c r="H168" s="32"/>
-      <c r="I168" s="32"/>
+      <c r="F168" s="28"/>
+      <c r="G168" s="28"/>
+      <c r="H168" s="28"/>
+      <c r="I168" s="28"/>
     </row>
     <row r="169" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F169" s="32"/>
-      <c r="G169" s="32"/>
-      <c r="H169" s="32"/>
-      <c r="I169" s="32"/>
+      <c r="F169" s="28"/>
+      <c r="G169" s="28"/>
+      <c r="H169" s="28"/>
+      <c r="I169" s="28"/>
     </row>
     <row r="170" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F170" s="32"/>
-      <c r="G170" s="32"/>
-      <c r="H170" s="32"/>
-      <c r="I170" s="32"/>
+      <c r="F170" s="28"/>
+      <c r="G170" s="28"/>
+      <c r="H170" s="28"/>
+      <c r="I170" s="28"/>
     </row>
     <row r="171" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F171" s="32"/>
-      <c r="G171" s="32"/>
-      <c r="H171" s="32"/>
-      <c r="I171" s="32"/>
+      <c r="F171" s="28"/>
+      <c r="G171" s="28"/>
+      <c r="H171" s="28"/>
+      <c r="I171" s="28"/>
     </row>
     <row r="172" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F172" s="32"/>
-      <c r="G172" s="32"/>
-      <c r="H172" s="32"/>
-      <c r="I172" s="32"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="28"/>
+      <c r="H172" s="28"/>
+      <c r="I172" s="28"/>
     </row>
     <row r="173" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F173" s="32"/>
-      <c r="G173" s="32"/>
-      <c r="H173" s="32"/>
-      <c r="I173" s="32"/>
+      <c r="F173" s="28"/>
+      <c r="G173" s="28"/>
+      <c r="H173" s="28"/>
+      <c r="I173" s="28"/>
     </row>
     <row r="174" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F174" s="32"/>
-      <c r="G174" s="32"/>
-      <c r="H174" s="32"/>
-      <c r="I174" s="32"/>
+      <c r="F174" s="28"/>
+      <c r="G174" s="28"/>
+      <c r="H174" s="28"/>
+      <c r="I174" s="28"/>
     </row>
     <row r="175" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F175" s="32"/>
-      <c r="G175" s="32"/>
-      <c r="H175" s="32"/>
-      <c r="I175" s="32"/>
+      <c r="F175" s="28"/>
+      <c r="G175" s="28"/>
+      <c r="H175" s="28"/>
+      <c r="I175" s="28"/>
     </row>
     <row r="176" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F176" s="32"/>
-      <c r="G176" s="32"/>
-      <c r="H176" s="32"/>
-      <c r="I176" s="32"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="28"/>
+      <c r="H176" s="28"/>
+      <c r="I176" s="28"/>
     </row>
     <row r="177" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F177" s="32"/>
-      <c r="G177" s="32"/>
-      <c r="H177" s="32"/>
-      <c r="I177" s="32"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="28"/>
+      <c r="H177" s="28"/>
+      <c r="I177" s="28"/>
     </row>
     <row r="178" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F178" s="32"/>
-      <c r="G178" s="32"/>
-      <c r="H178" s="32"/>
-      <c r="I178" s="32"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="28"/>
+      <c r="H178" s="28"/>
+      <c r="I178" s="28"/>
     </row>
     <row r="179" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F179" s="32"/>
-      <c r="G179" s="32"/>
-      <c r="H179" s="32"/>
-      <c r="I179" s="32"/>
+      <c r="F179" s="28"/>
+      <c r="G179" s="28"/>
+      <c r="H179" s="28"/>
+      <c r="I179" s="28"/>
     </row>
     <row r="180" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F180" s="32"/>
-      <c r="G180" s="32"/>
-      <c r="H180" s="32"/>
-      <c r="I180" s="32"/>
+      <c r="F180" s="28"/>
+      <c r="G180" s="28"/>
+      <c r="H180" s="28"/>
+      <c r="I180" s="28"/>
     </row>
     <row r="181" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F181" s="32"/>
-      <c r="G181" s="32"/>
-      <c r="H181" s="32"/>
-      <c r="I181" s="32"/>
+      <c r="F181" s="28"/>
+      <c r="G181" s="28"/>
+      <c r="H181" s="28"/>
+      <c r="I181" s="28"/>
     </row>
     <row r="182" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F182" s="32"/>
-      <c r="G182" s="32"/>
-      <c r="H182" s="32"/>
-      <c r="I182" s="32"/>
+      <c r="F182" s="28"/>
+      <c r="G182" s="28"/>
+      <c r="H182" s="28"/>
+      <c r="I182" s="28"/>
     </row>
     <row r="183" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F183" s="32"/>
-      <c r="G183" s="32"/>
-      <c r="H183" s="32"/>
-      <c r="I183" s="32"/>
+      <c r="F183" s="28"/>
+      <c r="G183" s="28"/>
+      <c r="H183" s="28"/>
+      <c r="I183" s="28"/>
     </row>
     <row r="184" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F184" s="32"/>
-      <c r="G184" s="32"/>
-      <c r="H184" s="32"/>
-      <c r="I184" s="32"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="28"/>
+      <c r="H184" s="28"/>
+      <c r="I184" s="28"/>
     </row>
     <row r="185" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F185" s="32"/>
-      <c r="G185" s="32"/>
-      <c r="H185" s="32"/>
-      <c r="I185" s="32"/>
+      <c r="F185" s="28"/>
+      <c r="G185" s="28"/>
+      <c r="H185" s="28"/>
+      <c r="I185" s="28"/>
     </row>
     <row r="186" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F186" s="32"/>
-      <c r="G186" s="32"/>
-      <c r="H186" s="32"/>
-      <c r="I186" s="32"/>
+      <c r="F186" s="28"/>
+      <c r="G186" s="28"/>
+      <c r="H186" s="28"/>
+      <c r="I186" s="28"/>
     </row>
     <row r="187" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F187" s="32"/>
-      <c r="G187" s="32"/>
-      <c r="H187" s="32"/>
-      <c r="I187" s="32"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="28"/>
+      <c r="H187" s="28"/>
+      <c r="I187" s="28"/>
     </row>
     <row r="188" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F188" s="32"/>
-      <c r="G188" s="32"/>
-      <c r="H188" s="32"/>
-      <c r="I188" s="32"/>
+      <c r="F188" s="28"/>
+      <c r="G188" s="28"/>
+      <c r="H188" s="28"/>
+      <c r="I188" s="28"/>
     </row>
     <row r="189" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F189" s="32"/>
-      <c r="G189" s="32"/>
-      <c r="H189" s="32"/>
-      <c r="I189" s="32"/>
+      <c r="F189" s="28"/>
+      <c r="G189" s="28"/>
+      <c r="H189" s="28"/>
+      <c r="I189" s="28"/>
     </row>
     <row r="190" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F190" s="32"/>
-      <c r="G190" s="32"/>
-      <c r="H190" s="32"/>
-      <c r="I190" s="32"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="28"/>
+      <c r="H190" s="28"/>
+      <c r="I190" s="28"/>
     </row>
     <row r="191" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F191" s="32"/>
-      <c r="G191" s="32"/>
-      <c r="H191" s="32"/>
-      <c r="I191" s="32"/>
+      <c r="F191" s="28"/>
+      <c r="G191" s="28"/>
+      <c r="H191" s="28"/>
+      <c r="I191" s="28"/>
     </row>
     <row r="192" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F192" s="32"/>
-      <c r="G192" s="32"/>
-      <c r="H192" s="32"/>
-      <c r="I192" s="32"/>
+      <c r="F192" s="28"/>
+      <c r="G192" s="28"/>
+      <c r="H192" s="28"/>
+      <c r="I192" s="28"/>
     </row>
     <row r="193" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F193" s="32"/>
-      <c r="G193" s="32"/>
-      <c r="H193" s="32"/>
-      <c r="I193" s="32"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="28"/>
+      <c r="H193" s="28"/>
+      <c r="I193" s="28"/>
     </row>
     <row r="194" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F194" s="32"/>
-      <c r="G194" s="32"/>
-      <c r="H194" s="32"/>
-      <c r="I194" s="32"/>
+      <c r="F194" s="28"/>
+      <c r="G194" s="28"/>
+      <c r="H194" s="28"/>
+      <c r="I194" s="28"/>
     </row>
     <row r="195" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F195" s="32"/>
-      <c r="G195" s="32"/>
-      <c r="H195" s="32"/>
-      <c r="I195" s="32"/>
+      <c r="F195" s="28"/>
+      <c r="G195" s="28"/>
+      <c r="H195" s="28"/>
+      <c r="I195" s="28"/>
     </row>
     <row r="196" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F196" s="32"/>
-      <c r="G196" s="32"/>
-      <c r="H196" s="32"/>
-      <c r="I196" s="32"/>
+      <c r="F196" s="28"/>
+      <c r="G196" s="28"/>
+      <c r="H196" s="28"/>
+      <c r="I196" s="28"/>
     </row>
     <row r="197" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F197" s="32"/>
-      <c r="G197" s="32"/>
-      <c r="H197" s="32"/>
-      <c r="I197" s="32"/>
+      <c r="F197" s="28"/>
+      <c r="G197" s="28"/>
+      <c r="H197" s="28"/>
+      <c r="I197" s="28"/>
     </row>
     <row r="198" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F198" s="32"/>
-      <c r="G198" s="32"/>
-      <c r="H198" s="32"/>
-      <c r="I198" s="32"/>
+      <c r="F198" s="28"/>
+      <c r="G198" s="28"/>
+      <c r="H198" s="28"/>
+      <c r="I198" s="28"/>
     </row>
     <row r="199" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F199" s="32"/>
-      <c r="G199" s="32"/>
-      <c r="H199" s="32"/>
-      <c r="I199" s="32"/>
+      <c r="F199" s="28"/>
+      <c r="G199" s="28"/>
+      <c r="H199" s="28"/>
+      <c r="I199" s="28"/>
     </row>
     <row r="200" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F200" s="32"/>
-      <c r="G200" s="32"/>
-      <c r="H200" s="32"/>
-      <c r="I200" s="32"/>
+      <c r="F200" s="28"/>
+      <c r="G200" s="28"/>
+      <c r="H200" s="28"/>
+      <c r="I200" s="28"/>
     </row>
     <row r="201" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F201" s="32"/>
-      <c r="G201" s="32"/>
-      <c r="H201" s="32"/>
-      <c r="I201" s="32"/>
+      <c r="F201" s="28"/>
+      <c r="G201" s="28"/>
+      <c r="H201" s="28"/>
+      <c r="I201" s="28"/>
     </row>
     <row r="202" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F202" s="32"/>
-      <c r="G202" s="32"/>
-      <c r="H202" s="32"/>
-      <c r="I202" s="32"/>
+      <c r="F202" s="28"/>
+      <c r="G202" s="28"/>
+      <c r="H202" s="28"/>
+      <c r="I202" s="28"/>
     </row>
     <row r="203" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F203" s="32"/>
-      <c r="G203" s="32"/>
-      <c r="H203" s="32"/>
-      <c r="I203" s="32"/>
+      <c r="F203" s="28"/>
+      <c r="G203" s="28"/>
+      <c r="H203" s="28"/>
+      <c r="I203" s="28"/>
     </row>
     <row r="204" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F204" s="32"/>
-      <c r="G204" s="32"/>
-      <c r="H204" s="32"/>
-      <c r="I204" s="32"/>
+      <c r="F204" s="28"/>
+      <c r="G204" s="28"/>
+      <c r="H204" s="28"/>
+      <c r="I204" s="28"/>
     </row>
     <row r="205" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F205" s="32"/>
-      <c r="G205" s="32"/>
-      <c r="H205" s="32"/>
-      <c r="I205" s="32"/>
+      <c r="F205" s="28"/>
+      <c r="G205" s="28"/>
+      <c r="H205" s="28"/>
+      <c r="I205" s="28"/>
     </row>
     <row r="206" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F206" s="32"/>
-      <c r="G206" s="32"/>
-      <c r="H206" s="32"/>
-      <c r="I206" s="32"/>
+      <c r="F206" s="28"/>
+      <c r="G206" s="28"/>
+      <c r="H206" s="28"/>
+      <c r="I206" s="28"/>
     </row>
     <row r="207" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F207" s="32"/>
-      <c r="G207" s="32"/>
-      <c r="H207" s="32"/>
-      <c r="I207" s="32"/>
+      <c r="F207" s="28"/>
+      <c r="G207" s="28"/>
+      <c r="H207" s="28"/>
+      <c r="I207" s="28"/>
     </row>
     <row r="208" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F208" s="32"/>
-      <c r="G208" s="32"/>
-      <c r="H208" s="32"/>
-      <c r="I208" s="32"/>
+      <c r="F208" s="28"/>
+      <c r="G208" s="28"/>
+      <c r="H208" s="28"/>
+      <c r="I208" s="28"/>
     </row>
     <row r="209" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F209" s="32"/>
-      <c r="G209" s="32"/>
-      <c r="H209" s="32"/>
-      <c r="I209" s="32"/>
+      <c r="F209" s="28"/>
+      <c r="G209" s="28"/>
+      <c r="H209" s="28"/>
+      <c r="I209" s="28"/>
     </row>
     <row r="210" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F210" s="32"/>
-      <c r="G210" s="32"/>
-      <c r="H210" s="32"/>
-      <c r="I210" s="32"/>
+      <c r="F210" s="28"/>
+      <c r="G210" s="28"/>
+      <c r="H210" s="28"/>
+      <c r="I210" s="28"/>
     </row>
     <row r="211" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F211" s="32"/>
-      <c r="G211" s="32"/>
-      <c r="H211" s="32"/>
-      <c r="I211" s="32"/>
+      <c r="F211" s="28"/>
+      <c r="G211" s="28"/>
+      <c r="H211" s="28"/>
+      <c r="I211" s="28"/>
     </row>
     <row r="212" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F212" s="32"/>
-      <c r="G212" s="32"/>
-      <c r="H212" s="32"/>
-      <c r="I212" s="32"/>
+      <c r="F212" s="28"/>
+      <c r="G212" s="28"/>
+      <c r="H212" s="28"/>
+      <c r="I212" s="28"/>
     </row>
     <row r="213" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F213" s="32"/>
-      <c r="G213" s="32"/>
-      <c r="H213" s="32"/>
-      <c r="I213" s="32"/>
+      <c r="F213" s="28"/>
+      <c r="G213" s="28"/>
+      <c r="H213" s="28"/>
+      <c r="I213" s="28"/>
     </row>
     <row r="214" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F214" s="32"/>
-      <c r="G214" s="32"/>
-      <c r="H214" s="32"/>
-      <c r="I214" s="32"/>
+      <c r="F214" s="28"/>
+      <c r="G214" s="28"/>
+      <c r="H214" s="28"/>
+      <c r="I214" s="28"/>
     </row>
     <row r="215" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F215" s="32"/>
-      <c r="G215" s="32"/>
-      <c r="H215" s="32"/>
-      <c r="I215" s="32"/>
+      <c r="F215" s="28"/>
+      <c r="G215" s="28"/>
+      <c r="H215" s="28"/>
+      <c r="I215" s="28"/>
     </row>
     <row r="216" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F216" s="32"/>
-      <c r="G216" s="32"/>
-      <c r="H216" s="32"/>
-      <c r="I216" s="32"/>
+      <c r="F216" s="28"/>
+      <c r="G216" s="28"/>
+      <c r="H216" s="28"/>
+      <c r="I216" s="28"/>
     </row>
     <row r="217" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F217" s="32"/>
-      <c r="G217" s="32"/>
-      <c r="H217" s="32"/>
-      <c r="I217" s="32"/>
+      <c r="F217" s="28"/>
+      <c r="G217" s="28"/>
+      <c r="H217" s="28"/>
+      <c r="I217" s="28"/>
     </row>
     <row r="218" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F218" s="32"/>
-      <c r="G218" s="32"/>
-      <c r="H218" s="32"/>
-      <c r="I218" s="32"/>
+      <c r="F218" s="28"/>
+      <c r="G218" s="28"/>
+      <c r="H218" s="28"/>
+      <c r="I218" s="28"/>
     </row>
     <row r="219" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F219" s="32"/>
-      <c r="G219" s="32"/>
-      <c r="H219" s="32"/>
-      <c r="I219" s="33"/>
+      <c r="F219" s="28"/>
+      <c r="G219" s="28"/>
+      <c r="H219" s="28"/>
+      <c r="I219" s="29"/>
     </row>
     <row r="220" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F220" s="28"/>
-      <c r="G220" s="28"/>
-      <c r="H220" s="28"/>
-      <c r="I220" s="28"/>
+      <c r="F220" s="26"/>
+      <c r="G220" s="26"/>
+      <c r="H220" s="26"/>
+      <c r="I220" s="26"/>
     </row>
     <row r="221" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F221" s="29"/>
-      <c r="G221" s="30"/>
-      <c r="H221" s="30"/>
-      <c r="I221" s="30"/>
+      <c r="F221" s="32"/>
+      <c r="G221" s="33"/>
+      <c r="H221" s="33"/>
+      <c r="I221" s="33"/>
     </row>
     <row r="222" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F222" s="31"/>
-      <c r="G222" s="31"/>
-      <c r="H222" s="31"/>
-      <c r="I222" s="31"/>
+      <c r="F222" s="27"/>
+      <c r="G222" s="27"/>
+      <c r="H222" s="27"/>
+      <c r="I222" s="27"/>
     </row>
     <row r="223" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F223" s="32"/>
-      <c r="G223" s="32"/>
-      <c r="H223" s="32"/>
-      <c r="I223" s="33"/>
+      <c r="F223" s="28"/>
+      <c r="G223" s="28"/>
+      <c r="H223" s="28"/>
+      <c r="I223" s="29"/>
     </row>
     <row r="224" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F224" s="32"/>
-      <c r="G224" s="32"/>
-      <c r="H224" s="32"/>
-      <c r="I224" s="33"/>
+      <c r="F224" s="28"/>
+      <c r="G224" s="28"/>
+      <c r="H224" s="28"/>
+      <c r="I224" s="29"/>
     </row>
     <row r="225" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F225" s="32"/>
-      <c r="G225" s="32"/>
-      <c r="H225" s="32"/>
-      <c r="I225" s="33"/>
+      <c r="F225" s="28"/>
+      <c r="G225" s="28"/>
+      <c r="H225" s="28"/>
+      <c r="I225" s="29"/>
     </row>
     <row r="226" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F226" s="32"/>
-      <c r="G226" s="32"/>
-      <c r="H226" s="32"/>
-      <c r="I226" s="33"/>
+      <c r="F226" s="28"/>
+      <c r="G226" s="28"/>
+      <c r="H226" s="28"/>
+      <c r="I226" s="29"/>
     </row>
     <row r="227" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F227" s="32"/>
-      <c r="G227" s="32"/>
-      <c r="H227" s="32"/>
-      <c r="I227" s="33"/>
+      <c r="F227" s="28"/>
+      <c r="G227" s="28"/>
+      <c r="H227" s="28"/>
+      <c r="I227" s="29"/>
     </row>
     <row r="228" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F228" s="32"/>
-      <c r="G228" s="32"/>
-      <c r="H228" s="32"/>
-      <c r="I228" s="33"/>
+      <c r="F228" s="28"/>
+      <c r="G228" s="28"/>
+      <c r="H228" s="28"/>
+      <c r="I228" s="29"/>
     </row>
     <row r="229" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F229" s="32"/>
-      <c r="G229" s="32"/>
-      <c r="H229" s="32"/>
-      <c r="I229" s="33"/>
+      <c r="F229" s="28"/>
+      <c r="G229" s="28"/>
+      <c r="H229" s="28"/>
+      <c r="I229" s="29"/>
     </row>
     <row r="230" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F230" s="32"/>
-      <c r="G230" s="32"/>
-      <c r="H230" s="32"/>
-      <c r="I230" s="33"/>
+      <c r="F230" s="28"/>
+      <c r="G230" s="28"/>
+      <c r="H230" s="28"/>
+      <c r="I230" s="29"/>
     </row>
     <row r="231" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F231" s="32"/>
-      <c r="G231" s="32"/>
-      <c r="H231" s="32"/>
-      <c r="I231" s="33"/>
+      <c r="F231" s="28"/>
+      <c r="G231" s="28"/>
+      <c r="H231" s="28"/>
+      <c r="I231" s="29"/>
     </row>
     <row r="232" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F232" s="32"/>
-      <c r="G232" s="32"/>
-      <c r="H232" s="32"/>
-      <c r="I232" s="33"/>
+      <c r="F232" s="28"/>
+      <c r="G232" s="28"/>
+      <c r="H232" s="28"/>
+      <c r="I232" s="29"/>
     </row>
     <row r="233" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F233" s="32"/>
-      <c r="G233" s="32"/>
-      <c r="H233" s="32"/>
-      <c r="I233" s="33"/>
+      <c r="F233" s="28"/>
+      <c r="G233" s="28"/>
+      <c r="H233" s="28"/>
+      <c r="I233" s="29"/>
     </row>
     <row r="234" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F234" s="32"/>
-      <c r="G234" s="32"/>
-      <c r="H234" s="32"/>
-      <c r="I234" s="33"/>
+      <c r="F234" s="28"/>
+      <c r="G234" s="28"/>
+      <c r="H234" s="28"/>
+      <c r="I234" s="29"/>
     </row>
     <row r="235" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F235" s="32"/>
-      <c r="G235" s="32"/>
-      <c r="H235" s="32"/>
-      <c r="I235" s="33"/>
+      <c r="F235" s="28"/>
+      <c r="G235" s="28"/>
+      <c r="H235" s="28"/>
+      <c r="I235" s="29"/>
     </row>
     <row r="236" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F236" s="32"/>
-      <c r="G236" s="32"/>
-      <c r="H236" s="32"/>
-      <c r="I236" s="33"/>
+      <c r="F236" s="28"/>
+      <c r="G236" s="28"/>
+      <c r="H236" s="28"/>
+      <c r="I236" s="29"/>
     </row>
     <row r="237" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F237" s="32"/>
-      <c r="G237" s="32"/>
-      <c r="H237" s="32"/>
-      <c r="I237" s="33"/>
+      <c r="F237" s="28"/>
+      <c r="G237" s="28"/>
+      <c r="H237" s="28"/>
+      <c r="I237" s="29"/>
     </row>
     <row r="238" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F238" s="32"/>
-      <c r="G238" s="32"/>
-      <c r="H238" s="32"/>
-      <c r="I238" s="33"/>
+      <c r="F238" s="28"/>
+      <c r="G238" s="28"/>
+      <c r="H238" s="28"/>
+      <c r="I238" s="29"/>
     </row>
     <row r="239" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F239" s="32"/>
-      <c r="G239" s="32"/>
-      <c r="H239" s="32"/>
-      <c r="I239" s="33"/>
+      <c r="F239" s="28"/>
+      <c r="G239" s="28"/>
+      <c r="H239" s="28"/>
+      <c r="I239" s="29"/>
     </row>
     <row r="240" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F240" s="32"/>
-      <c r="G240" s="32"/>
-      <c r="H240" s="32"/>
-      <c r="I240" s="33"/>
+      <c r="F240" s="28"/>
+      <c r="G240" s="28"/>
+      <c r="H240" s="28"/>
+      <c r="I240" s="29"/>
     </row>
     <row r="241" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F241" s="32"/>
-      <c r="G241" s="32"/>
-      <c r="H241" s="32"/>
-      <c r="I241" s="33"/>
+      <c r="F241" s="28"/>
+      <c r="G241" s="28"/>
+      <c r="H241" s="28"/>
+      <c r="I241" s="29"/>
     </row>
     <row r="242" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F242" s="32"/>
-      <c r="G242" s="32"/>
-      <c r="H242" s="32"/>
-      <c r="I242" s="33"/>
+      <c r="F242" s="28"/>
+      <c r="G242" s="28"/>
+      <c r="H242" s="28"/>
+      <c r="I242" s="29"/>
     </row>
     <row r="243" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F243" s="32"/>
-      <c r="G243" s="32"/>
-      <c r="H243" s="32"/>
-      <c r="I243" s="33"/>
+      <c r="F243" s="28"/>
+      <c r="G243" s="28"/>
+      <c r="H243" s="28"/>
+      <c r="I243" s="29"/>
     </row>
     <row r="244" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F244" s="32"/>
-      <c r="G244" s="32"/>
-      <c r="H244" s="32"/>
-      <c r="I244" s="33"/>
+      <c r="F244" s="28"/>
+      <c r="G244" s="28"/>
+      <c r="H244" s="28"/>
+      <c r="I244" s="29"/>
     </row>
     <row r="245" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F245" s="32"/>
-      <c r="G245" s="32"/>
-      <c r="H245" s="32"/>
-      <c r="I245" s="33"/>
+      <c r="F245" s="28"/>
+      <c r="G245" s="28"/>
+      <c r="H245" s="28"/>
+      <c r="I245" s="29"/>
     </row>
     <row r="246" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F246" s="32"/>
-      <c r="G246" s="32"/>
-      <c r="H246" s="32"/>
-      <c r="I246" s="33"/>
+      <c r="F246" s="28"/>
+      <c r="G246" s="28"/>
+      <c r="H246" s="28"/>
+      <c r="I246" s="29"/>
     </row>
     <row r="247" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F247" s="32"/>
-      <c r="G247" s="32"/>
-      <c r="H247" s="32"/>
-      <c r="I247" s="33"/>
+      <c r="F247" s="28"/>
+      <c r="G247" s="28"/>
+      <c r="H247" s="28"/>
+      <c r="I247" s="29"/>
     </row>
     <row r="248" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F248" s="32"/>
-      <c r="G248" s="32"/>
-      <c r="H248" s="32"/>
-      <c r="I248" s="33"/>
+      <c r="F248" s="28"/>
+      <c r="G248" s="28"/>
+      <c r="H248" s="28"/>
+      <c r="I248" s="29"/>
     </row>
     <row r="249" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F249" s="32"/>
-      <c r="G249" s="32"/>
-      <c r="H249" s="32"/>
-      <c r="I249" s="33"/>
+      <c r="F249" s="28"/>
+      <c r="G249" s="28"/>
+      <c r="H249" s="28"/>
+      <c r="I249" s="29"/>
     </row>
     <row r="250" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F250" s="32"/>
-      <c r="G250" s="32"/>
-      <c r="H250" s="32"/>
-      <c r="I250" s="33"/>
+      <c r="F250" s="28"/>
+      <c r="G250" s="28"/>
+      <c r="H250" s="28"/>
+      <c r="I250" s="29"/>
     </row>
     <row r="251" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F251" s="32"/>
-      <c r="G251" s="32"/>
-      <c r="H251" s="32"/>
-      <c r="I251" s="33"/>
+      <c r="F251" s="28"/>
+      <c r="G251" s="28"/>
+      <c r="H251" s="28"/>
+      <c r="I251" s="29"/>
     </row>
     <row r="252" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F252" s="32"/>
-      <c r="G252" s="32"/>
-      <c r="H252" s="32"/>
-      <c r="I252" s="33"/>
+      <c r="F252" s="28"/>
+      <c r="G252" s="28"/>
+      <c r="H252" s="28"/>
+      <c r="I252" s="29"/>
     </row>
     <row r="253" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F253" s="32"/>
-      <c r="G253" s="32"/>
-      <c r="H253" s="32"/>
-      <c r="I253" s="33"/>
+      <c r="F253" s="28"/>
+      <c r="G253" s="28"/>
+      <c r="H253" s="28"/>
+      <c r="I253" s="29"/>
     </row>
     <row r="254" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F254" s="32"/>
-      <c r="G254" s="32"/>
-      <c r="H254" s="32"/>
-      <c r="I254" s="33"/>
+      <c r="F254" s="28"/>
+      <c r="G254" s="28"/>
+      <c r="H254" s="28"/>
+      <c r="I254" s="29"/>
     </row>
     <row r="255" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F255" s="32"/>
-      <c r="G255" s="32"/>
-      <c r="H255" s="32"/>
-      <c r="I255" s="33"/>
+      <c r="F255" s="28"/>
+      <c r="G255" s="28"/>
+      <c r="H255" s="28"/>
+      <c r="I255" s="29"/>
     </row>
     <row r="256" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F256" s="32"/>
-      <c r="G256" s="32"/>
-      <c r="H256" s="32"/>
-      <c r="I256" s="33"/>
+      <c r="F256" s="28"/>
+      <c r="G256" s="28"/>
+      <c r="H256" s="28"/>
+      <c r="I256" s="29"/>
     </row>
     <row r="257" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F257" s="32"/>
-      <c r="G257" s="32"/>
-      <c r="H257" s="32"/>
-      <c r="I257" s="33"/>
+      <c r="F257" s="28"/>
+      <c r="G257" s="28"/>
+      <c r="H257" s="28"/>
+      <c r="I257" s="29"/>
     </row>
     <row r="258" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F258" s="32"/>
-      <c r="G258" s="32"/>
-      <c r="H258" s="32"/>
-      <c r="I258" s="33"/>
+      <c r="F258" s="28"/>
+      <c r="G258" s="28"/>
+      <c r="H258" s="28"/>
+      <c r="I258" s="29"/>
     </row>
     <row r="259" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F259" s="32"/>
-      <c r="G259" s="32"/>
-      <c r="H259" s="32"/>
-      <c r="I259" s="33"/>
+      <c r="F259" s="28"/>
+      <c r="G259" s="28"/>
+      <c r="H259" s="28"/>
+      <c r="I259" s="29"/>
     </row>
     <row r="260" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F260" s="32"/>
-      <c r="G260" s="32"/>
-      <c r="H260" s="32"/>
-      <c r="I260" s="33"/>
+      <c r="F260" s="28"/>
+      <c r="G260" s="28"/>
+      <c r="H260" s="28"/>
+      <c r="I260" s="29"/>
     </row>
     <row r="261" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F261" s="32"/>
-      <c r="G261" s="32"/>
-      <c r="H261" s="32"/>
-      <c r="I261" s="33"/>
+      <c r="F261" s="28"/>
+      <c r="G261" s="28"/>
+      <c r="H261" s="28"/>
+      <c r="I261" s="29"/>
     </row>
     <row r="262" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F262" s="32"/>
-      <c r="G262" s="32"/>
-      <c r="H262" s="32"/>
-      <c r="I262" s="33"/>
+      <c r="F262" s="28"/>
+      <c r="G262" s="28"/>
+      <c r="H262" s="28"/>
+      <c r="I262" s="29"/>
     </row>
     <row r="263" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F263" s="32"/>
-      <c r="G263" s="32"/>
-      <c r="H263" s="32"/>
-      <c r="I263" s="33"/>
+      <c r="F263" s="28"/>
+      <c r="G263" s="28"/>
+      <c r="H263" s="28"/>
+      <c r="I263" s="29"/>
     </row>
     <row r="264" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F264" s="32"/>
-      <c r="G264" s="32"/>
-      <c r="H264" s="32"/>
-      <c r="I264" s="33"/>
+      <c r="F264" s="28"/>
+      <c r="G264" s="28"/>
+      <c r="H264" s="28"/>
+      <c r="I264" s="29"/>
     </row>
     <row r="265" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F265" s="32"/>
-      <c r="G265" s="32"/>
-      <c r="H265" s="32"/>
-      <c r="I265" s="33"/>
+      <c r="F265" s="28"/>
+      <c r="G265" s="28"/>
+      <c r="H265" s="28"/>
+      <c r="I265" s="29"/>
     </row>
     <row r="266" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F266" s="32"/>
-      <c r="G266" s="32"/>
-      <c r="H266" s="32"/>
-      <c r="I266" s="33"/>
+      <c r="F266" s="28"/>
+      <c r="G266" s="28"/>
+      <c r="H266" s="28"/>
+      <c r="I266" s="29"/>
     </row>
     <row r="267" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F267" s="32"/>
-      <c r="G267" s="32"/>
-      <c r="H267" s="32"/>
-      <c r="I267" s="33"/>
+      <c r="F267" s="28"/>
+      <c r="G267" s="28"/>
+      <c r="H267" s="28"/>
+      <c r="I267" s="29"/>
     </row>
     <row r="268" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F268" s="32"/>
-      <c r="G268" s="32"/>
-      <c r="H268" s="32"/>
-      <c r="I268" s="33"/>
+      <c r="F268" s="28"/>
+      <c r="G268" s="28"/>
+      <c r="H268" s="28"/>
+      <c r="I268" s="29"/>
     </row>
     <row r="269" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F269" s="32"/>
-      <c r="G269" s="32"/>
-      <c r="H269" s="32"/>
-      <c r="I269" s="33"/>
+      <c r="F269" s="28"/>
+      <c r="G269" s="28"/>
+      <c r="H269" s="28"/>
+      <c r="I269" s="29"/>
     </row>
     <row r="270" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F270" s="32"/>
-      <c r="G270" s="32"/>
-      <c r="H270" s="32"/>
-      <c r="I270" s="33"/>
+      <c r="F270" s="28"/>
+      <c r="G270" s="28"/>
+      <c r="H270" s="28"/>
+      <c r="I270" s="29"/>
     </row>
     <row r="271" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F271" s="32"/>
-      <c r="G271" s="32"/>
-      <c r="H271" s="32"/>
-      <c r="I271" s="33"/>
+      <c r="F271" s="28"/>
+      <c r="G271" s="28"/>
+      <c r="H271" s="28"/>
+      <c r="I271" s="29"/>
     </row>
     <row r="272" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F272" s="32"/>
-      <c r="G272" s="32"/>
-      <c r="H272" s="32"/>
-      <c r="I272" s="33"/>
+      <c r="F272" s="28"/>
+      <c r="G272" s="28"/>
+      <c r="H272" s="28"/>
+      <c r="I272" s="29"/>
     </row>
     <row r="273" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F273" s="32"/>
-      <c r="G273" s="32"/>
-      <c r="H273" s="32"/>
-      <c r="I273" s="33"/>
+      <c r="F273" s="28"/>
+      <c r="G273" s="28"/>
+      <c r="H273" s="28"/>
+      <c r="I273" s="29"/>
     </row>
     <row r="274" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F274" s="32"/>
-      <c r="G274" s="32"/>
-      <c r="H274" s="32"/>
-      <c r="I274" s="33"/>
+      <c r="F274" s="28"/>
+      <c r="G274" s="28"/>
+      <c r="H274" s="28"/>
+      <c r="I274" s="29"/>
     </row>
     <row r="275" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F275" s="28"/>
-      <c r="G275" s="28"/>
-      <c r="H275" s="28"/>
-      <c r="I275" s="28"/>
+      <c r="F275" s="26"/>
+      <c r="G275" s="26"/>
+      <c r="H275" s="26"/>
+      <c r="I275" s="26"/>
     </row>
     <row r="276" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F276" s="29"/>
-      <c r="G276" s="30"/>
-      <c r="H276" s="30"/>
-      <c r="I276" s="30"/>
+      <c r="F276" s="32"/>
+      <c r="G276" s="33"/>
+      <c r="H276" s="33"/>
+      <c r="I276" s="33"/>
     </row>
     <row r="277" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F277" s="31"/>
-      <c r="G277" s="31"/>
-      <c r="H277" s="31"/>
-      <c r="I277" s="31"/>
+      <c r="F277" s="27"/>
+      <c r="G277" s="27"/>
+      <c r="H277" s="27"/>
+      <c r="I277" s="27"/>
     </row>
     <row r="278" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F278" s="32"/>
-      <c r="G278" s="32"/>
-      <c r="H278" s="32"/>
-      <c r="I278" s="33"/>
+      <c r="F278" s="28"/>
+      <c r="G278" s="28"/>
+      <c r="H278" s="28"/>
+      <c r="I278" s="29"/>
     </row>
     <row r="279" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F279" s="32"/>
-      <c r="G279" s="32"/>
-      <c r="H279" s="32"/>
-      <c r="I279" s="33"/>
+      <c r="F279" s="28"/>
+      <c r="G279" s="28"/>
+      <c r="H279" s="28"/>
+      <c r="I279" s="29"/>
     </row>
     <row r="280" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F280" s="32"/>
-      <c r="G280" s="32"/>
-      <c r="H280" s="32"/>
-      <c r="I280" s="33"/>
+      <c r="F280" s="28"/>
+      <c r="G280" s="28"/>
+      <c r="H280" s="28"/>
+      <c r="I280" s="29"/>
     </row>
     <row r="281" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F281" s="32"/>
-      <c r="G281" s="32"/>
-      <c r="H281" s="32"/>
-      <c r="I281" s="33"/>
+      <c r="F281" s="28"/>
+      <c r="G281" s="28"/>
+      <c r="H281" s="28"/>
+      <c r="I281" s="29"/>
     </row>
     <row r="282" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F282" s="32"/>
-      <c r="G282" s="32"/>
-      <c r="H282" s="32"/>
-      <c r="I282" s="33"/>
+      <c r="F282" s="28"/>
+      <c r="G282" s="28"/>
+      <c r="H282" s="28"/>
+      <c r="I282" s="29"/>
     </row>
     <row r="283" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F283" s="32"/>
-      <c r="G283" s="32"/>
-      <c r="H283" s="32"/>
-      <c r="I283" s="33"/>
+      <c r="F283" s="28"/>
+      <c r="G283" s="28"/>
+      <c r="H283" s="28"/>
+      <c r="I283" s="29"/>
     </row>
     <row r="284" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F284" s="32"/>
-      <c r="G284" s="32"/>
-      <c r="H284" s="32"/>
-      <c r="I284" s="33"/>
+      <c r="F284" s="28"/>
+      <c r="G284" s="28"/>
+      <c r="H284" s="28"/>
+      <c r="I284" s="29"/>
     </row>
     <row r="285" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F285" s="32"/>
-      <c r="G285" s="32"/>
-      <c r="H285" s="32"/>
-      <c r="I285" s="33"/>
+      <c r="F285" s="28"/>
+      <c r="G285" s="28"/>
+      <c r="H285" s="28"/>
+      <c r="I285" s="29"/>
     </row>
     <row r="286" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F286" s="32"/>
-      <c r="G286" s="32"/>
-      <c r="H286" s="32"/>
-      <c r="I286" s="33"/>
+      <c r="F286" s="28"/>
+      <c r="G286" s="28"/>
+      <c r="H286" s="28"/>
+      <c r="I286" s="29"/>
     </row>
     <row r="287" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F287" s="32"/>
-      <c r="G287" s="32"/>
-      <c r="H287" s="32"/>
-      <c r="I287" s="33"/>
+      <c r="F287" s="28"/>
+      <c r="G287" s="28"/>
+      <c r="H287" s="28"/>
+      <c r="I287" s="29"/>
     </row>
     <row r="288" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F288" s="32"/>
-      <c r="G288" s="32"/>
-      <c r="H288" s="32"/>
-      <c r="I288" s="33"/>
+      <c r="F288" s="28"/>
+      <c r="G288" s="28"/>
+      <c r="H288" s="28"/>
+      <c r="I288" s="29"/>
     </row>
     <row r="289" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F289" s="32"/>
-      <c r="G289" s="32"/>
-      <c r="H289" s="32"/>
-      <c r="I289" s="33"/>
+      <c r="F289" s="28"/>
+      <c r="G289" s="28"/>
+      <c r="H289" s="28"/>
+      <c r="I289" s="29"/>
     </row>
     <row r="290" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F290" s="32"/>
-      <c r="G290" s="32"/>
-      <c r="H290" s="32"/>
-      <c r="I290" s="33"/>
+      <c r="F290" s="28"/>
+      <c r="G290" s="28"/>
+      <c r="H290" s="28"/>
+      <c r="I290" s="29"/>
     </row>
     <row r="291" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F291" s="32"/>
-      <c r="G291" s="32"/>
-      <c r="H291" s="32"/>
-      <c r="I291" s="33"/>
+      <c r="F291" s="28"/>
+      <c r="G291" s="28"/>
+      <c r="H291" s="28"/>
+      <c r="I291" s="29"/>
     </row>
     <row r="292" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F292" s="32"/>
-      <c r="G292" s="32"/>
-      <c r="H292" s="32"/>
-      <c r="I292" s="33"/>
+      <c r="F292" s="28"/>
+      <c r="G292" s="28"/>
+      <c r="H292" s="28"/>
+      <c r="I292" s="29"/>
     </row>
     <row r="293" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F293" s="32"/>
-      <c r="G293" s="32"/>
-      <c r="H293" s="32"/>
-      <c r="I293" s="33"/>
+      <c r="F293" s="28"/>
+      <c r="G293" s="28"/>
+      <c r="H293" s="28"/>
+      <c r="I293" s="29"/>
     </row>
     <row r="294" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F294" s="32"/>
-      <c r="G294" s="32"/>
-      <c r="H294" s="32"/>
-      <c r="I294" s="33"/>
+      <c r="F294" s="28"/>
+      <c r="G294" s="28"/>
+      <c r="H294" s="28"/>
+      <c r="I294" s="29"/>
     </row>
     <row r="295" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F295" s="32"/>
-      <c r="G295" s="32"/>
-      <c r="H295" s="32"/>
-      <c r="I295" s="33"/>
+      <c r="F295" s="28"/>
+      <c r="G295" s="28"/>
+      <c r="H295" s="28"/>
+      <c r="I295" s="29"/>
     </row>
     <row r="296" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F296" s="32"/>
-      <c r="G296" s="32"/>
-      <c r="H296" s="32"/>
-      <c r="I296" s="33"/>
+      <c r="F296" s="28"/>
+      <c r="G296" s="28"/>
+      <c r="H296" s="28"/>
+      <c r="I296" s="29"/>
     </row>
     <row r="297" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F297" s="32"/>
-      <c r="G297" s="32"/>
-      <c r="H297" s="32"/>
-      <c r="I297" s="33"/>
+      <c r="F297" s="28"/>
+      <c r="G297" s="28"/>
+      <c r="H297" s="28"/>
+      <c r="I297" s="29"/>
     </row>
     <row r="298" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F298" s="32"/>
-      <c r="G298" s="32"/>
-      <c r="H298" s="32"/>
-      <c r="I298" s="33"/>
+      <c r="F298" s="28"/>
+      <c r="G298" s="28"/>
+      <c r="H298" s="28"/>
+      <c r="I298" s="29"/>
     </row>
     <row r="299" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F299" s="32"/>
-      <c r="G299" s="32"/>
-      <c r="H299" s="32"/>
-      <c r="I299" s="33"/>
+      <c r="F299" s="28"/>
+      <c r="G299" s="28"/>
+      <c r="H299" s="28"/>
+      <c r="I299" s="29"/>
     </row>
     <row r="300" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F300" s="32"/>
-      <c r="G300" s="32"/>
-      <c r="H300" s="32"/>
-      <c r="I300" s="33"/>
+      <c r="F300" s="28"/>
+      <c r="G300" s="28"/>
+      <c r="H300" s="28"/>
+      <c r="I300" s="29"/>
     </row>
     <row r="301" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F301" s="32"/>
-      <c r="G301" s="32"/>
-      <c r="H301" s="32"/>
-      <c r="I301" s="33"/>
+      <c r="F301" s="28"/>
+      <c r="G301" s="28"/>
+      <c r="H301" s="28"/>
+      <c r="I301" s="29"/>
     </row>
     <row r="302" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F302" s="32"/>
-      <c r="G302" s="32"/>
-      <c r="H302" s="32"/>
-      <c r="I302" s="33"/>
+      <c r="F302" s="28"/>
+      <c r="G302" s="28"/>
+      <c r="H302" s="28"/>
+      <c r="I302" s="29"/>
     </row>
     <row r="303" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F303" s="32"/>
-      <c r="G303" s="32"/>
-      <c r="H303" s="32"/>
-      <c r="I303" s="33"/>
+      <c r="F303" s="28"/>
+      <c r="G303" s="28"/>
+      <c r="H303" s="28"/>
+      <c r="I303" s="29"/>
     </row>
     <row r="304" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F304" s="32"/>
-      <c r="G304" s="32"/>
-      <c r="H304" s="32"/>
-      <c r="I304" s="33"/>
+      <c r="F304" s="28"/>
+      <c r="G304" s="28"/>
+      <c r="H304" s="28"/>
+      <c r="I304" s="29"/>
     </row>
     <row r="305" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F305" s="32"/>
-      <c r="G305" s="32"/>
-      <c r="H305" s="32"/>
-      <c r="I305" s="33"/>
+      <c r="F305" s="28"/>
+      <c r="G305" s="28"/>
+      <c r="H305" s="28"/>
+      <c r="I305" s="29"/>
     </row>
     <row r="306" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F306" s="32"/>
-      <c r="G306" s="32"/>
-      <c r="H306" s="32"/>
-      <c r="I306" s="33"/>
+      <c r="F306" s="28"/>
+      <c r="G306" s="28"/>
+      <c r="H306" s="28"/>
+      <c r="I306" s="29"/>
     </row>
     <row r="307" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F307" s="32"/>
-      <c r="G307" s="32"/>
-      <c r="H307" s="32"/>
-      <c r="I307" s="33"/>
+      <c r="F307" s="28"/>
+      <c r="G307" s="28"/>
+      <c r="H307" s="28"/>
+      <c r="I307" s="29"/>
     </row>
     <row r="308" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F308" s="32"/>
-      <c r="G308" s="32"/>
-      <c r="H308" s="32"/>
-      <c r="I308" s="33"/>
+      <c r="F308" s="28"/>
+      <c r="G308" s="28"/>
+      <c r="H308" s="28"/>
+      <c r="I308" s="29"/>
     </row>
     <row r="309" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F309" s="32"/>
-      <c r="G309" s="32"/>
-      <c r="H309" s="32"/>
-      <c r="I309" s="33"/>
+      <c r="F309" s="28"/>
+      <c r="G309" s="28"/>
+      <c r="H309" s="28"/>
+      <c r="I309" s="29"/>
     </row>
     <row r="310" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F310" s="32"/>
-      <c r="G310" s="32"/>
-      <c r="H310" s="32"/>
-      <c r="I310" s="33"/>
+      <c r="F310" s="28"/>
+      <c r="G310" s="28"/>
+      <c r="H310" s="28"/>
+      <c r="I310" s="29"/>
     </row>
     <row r="311" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F311" s="32"/>
-      <c r="G311" s="32"/>
-      <c r="H311" s="32"/>
-      <c r="I311" s="33"/>
+      <c r="F311" s="28"/>
+      <c r="G311" s="28"/>
+      <c r="H311" s="28"/>
+      <c r="I311" s="29"/>
     </row>
     <row r="312" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F312" s="32"/>
-      <c r="G312" s="32"/>
-      <c r="H312" s="32"/>
-      <c r="I312" s="33"/>
+      <c r="F312" s="28"/>
+      <c r="G312" s="28"/>
+      <c r="H312" s="28"/>
+      <c r="I312" s="29"/>
     </row>
     <row r="313" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F313" s="32"/>
-      <c r="G313" s="32"/>
-      <c r="H313" s="32"/>
-      <c r="I313" s="33"/>
+      <c r="F313" s="28"/>
+      <c r="G313" s="28"/>
+      <c r="H313" s="28"/>
+      <c r="I313" s="29"/>
     </row>
     <row r="314" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F314" s="32"/>
-      <c r="G314" s="32"/>
-      <c r="H314" s="32"/>
-      <c r="I314" s="33"/>
+      <c r="F314" s="28"/>
+      <c r="G314" s="28"/>
+      <c r="H314" s="28"/>
+      <c r="I314" s="29"/>
     </row>
     <row r="315" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F315" s="32"/>
-      <c r="G315" s="32"/>
-      <c r="H315" s="32"/>
-      <c r="I315" s="33"/>
+      <c r="F315" s="28"/>
+      <c r="G315" s="28"/>
+      <c r="H315" s="28"/>
+      <c r="I315" s="29"/>
     </row>
     <row r="316" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F316" s="32"/>
-      <c r="G316" s="32"/>
-      <c r="H316" s="32"/>
-      <c r="I316" s="33"/>
+      <c r="F316" s="28"/>
+      <c r="G316" s="28"/>
+      <c r="H316" s="28"/>
+      <c r="I316" s="29"/>
     </row>
     <row r="317" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F317" s="32"/>
-      <c r="G317" s="32"/>
-      <c r="H317" s="32"/>
-      <c r="I317" s="33"/>
+      <c r="F317" s="28"/>
+      <c r="G317" s="28"/>
+      <c r="H317" s="28"/>
+      <c r="I317" s="29"/>
     </row>
     <row r="318" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F318" s="32"/>
-      <c r="G318" s="32"/>
-      <c r="H318" s="32"/>
-      <c r="I318" s="33"/>
+      <c r="F318" s="28"/>
+      <c r="G318" s="28"/>
+      <c r="H318" s="28"/>
+      <c r="I318" s="29"/>
     </row>
     <row r="319" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F319" s="32"/>
-      <c r="G319" s="32"/>
-      <c r="H319" s="32"/>
-      <c r="I319" s="33"/>
+      <c r="F319" s="28"/>
+      <c r="G319" s="28"/>
+      <c r="H319" s="28"/>
+      <c r="I319" s="29"/>
     </row>
     <row r="320" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F320" s="32"/>
-      <c r="G320" s="32"/>
-      <c r="H320" s="32"/>
-      <c r="I320" s="33"/>
+      <c r="F320" s="28"/>
+      <c r="G320" s="28"/>
+      <c r="H320" s="28"/>
+      <c r="I320" s="29"/>
     </row>
     <row r="321" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F321" s="32"/>
-      <c r="G321" s="32"/>
-      <c r="H321" s="32"/>
-      <c r="I321" s="33"/>
+      <c r="F321" s="28"/>
+      <c r="G321" s="28"/>
+      <c r="H321" s="28"/>
+      <c r="I321" s="29"/>
     </row>
     <row r="322" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F322" s="32"/>
-      <c r="G322" s="32"/>
-      <c r="H322" s="32"/>
-      <c r="I322" s="33"/>
+      <c r="F322" s="28"/>
+      <c r="G322" s="28"/>
+      <c r="H322" s="28"/>
+      <c r="I322" s="29"/>
     </row>
     <row r="323" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F323" s="32"/>
-      <c r="G323" s="32"/>
-      <c r="H323" s="32"/>
-      <c r="I323" s="33"/>
+      <c r="F323" s="28"/>
+      <c r="G323" s="28"/>
+      <c r="H323" s="28"/>
+      <c r="I323" s="29"/>
     </row>
     <row r="324" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F324" s="32"/>
-      <c r="G324" s="32"/>
-      <c r="H324" s="32"/>
-      <c r="I324" s="33"/>
+      <c r="F324" s="28"/>
+      <c r="G324" s="28"/>
+      <c r="H324" s="28"/>
+      <c r="I324" s="29"/>
     </row>
     <row r="325" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F325" s="32"/>
-      <c r="G325" s="32"/>
-      <c r="H325" s="32"/>
-      <c r="I325" s="33"/>
+      <c r="F325" s="28"/>
+      <c r="G325" s="28"/>
+      <c r="H325" s="28"/>
+      <c r="I325" s="29"/>
     </row>
     <row r="326" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F326" s="32"/>
-      <c r="G326" s="32"/>
-      <c r="H326" s="32"/>
-      <c r="I326" s="33"/>
+      <c r="F326" s="28"/>
+      <c r="G326" s="28"/>
+      <c r="H326" s="28"/>
+      <c r="I326" s="29"/>
     </row>
     <row r="327" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F327" s="32"/>
-      <c r="G327" s="32"/>
-      <c r="H327" s="32"/>
-      <c r="I327" s="33"/>
+      <c r="F327" s="28"/>
+      <c r="G327" s="28"/>
+      <c r="H327" s="28"/>
+      <c r="I327" s="29"/>
     </row>
     <row r="328" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F328" s="32"/>
-      <c r="G328" s="32"/>
-      <c r="H328" s="32"/>
-      <c r="I328" s="33"/>
+      <c r="F328" s="28"/>
+      <c r="G328" s="28"/>
+      <c r="H328" s="28"/>
+      <c r="I328" s="29"/>
     </row>
     <row r="329" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F329" s="28"/>
-      <c r="G329" s="28"/>
-      <c r="H329" s="28"/>
-      <c r="I329" s="28"/>
+      <c r="F329" s="26"/>
+      <c r="G329" s="26"/>
+      <c r="H329" s="26"/>
+      <c r="I329" s="26"/>
     </row>
     <row r="330" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F330" s="29"/>
-      <c r="G330" s="30"/>
-      <c r="H330" s="30"/>
-      <c r="I330" s="30"/>
+      <c r="F330" s="32"/>
+      <c r="G330" s="33"/>
+      <c r="H330" s="33"/>
+      <c r="I330" s="33"/>
     </row>
     <row r="331" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F331" s="31"/>
-      <c r="G331" s="31"/>
-      <c r="H331" s="31"/>
-      <c r="I331" s="31"/>
+      <c r="F331" s="27"/>
+      <c r="G331" s="27"/>
+      <c r="H331" s="27"/>
+      <c r="I331" s="27"/>
     </row>
     <row r="332" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F332" s="32"/>
-      <c r="G332" s="32"/>
-      <c r="H332" s="32"/>
-      <c r="I332" s="33"/>
+      <c r="F332" s="28"/>
+      <c r="G332" s="28"/>
+      <c r="H332" s="28"/>
+      <c r="I332" s="29"/>
     </row>
     <row r="333" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F333" s="32"/>
-      <c r="G333" s="32"/>
-      <c r="H333" s="32"/>
-      <c r="I333" s="33"/>
+      <c r="F333" s="28"/>
+      <c r="G333" s="28"/>
+      <c r="H333" s="28"/>
+      <c r="I333" s="29"/>
     </row>
     <row r="334" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F334" s="32"/>
-      <c r="G334" s="32"/>
-      <c r="H334" s="32"/>
-      <c r="I334" s="33"/>
+      <c r="F334" s="28"/>
+      <c r="G334" s="28"/>
+      <c r="H334" s="28"/>
+      <c r="I334" s="29"/>
     </row>
     <row r="335" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F335" s="32"/>
-      <c r="G335" s="32"/>
-      <c r="H335" s="32"/>
-      <c r="I335" s="33"/>
+      <c r="F335" s="28"/>
+      <c r="G335" s="28"/>
+      <c r="H335" s="28"/>
+      <c r="I335" s="29"/>
     </row>
     <row r="336" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F336" s="32"/>
-      <c r="G336" s="32"/>
-      <c r="H336" s="32"/>
-      <c r="I336" s="33"/>
+      <c r="F336" s="28"/>
+      <c r="G336" s="28"/>
+      <c r="H336" s="28"/>
+      <c r="I336" s="29"/>
     </row>
     <row r="337" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F337" s="32"/>
-      <c r="G337" s="32"/>
-      <c r="H337" s="32"/>
-      <c r="I337" s="33"/>
+      <c r="F337" s="28"/>
+      <c r="G337" s="28"/>
+      <c r="H337" s="28"/>
+      <c r="I337" s="29"/>
     </row>
     <row r="338" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F338" s="32"/>
-      <c r="G338" s="32"/>
-      <c r="H338" s="32"/>
-      <c r="I338" s="33"/>
+      <c r="F338" s="28"/>
+      <c r="G338" s="28"/>
+      <c r="H338" s="28"/>
+      <c r="I338" s="29"/>
     </row>
     <row r="339" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F339" s="32"/>
-      <c r="G339" s="32"/>
-      <c r="H339" s="32"/>
-      <c r="I339" s="33"/>
+      <c r="F339" s="28"/>
+      <c r="G339" s="28"/>
+      <c r="H339" s="28"/>
+      <c r="I339" s="29"/>
     </row>
     <row r="340" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F340" s="32"/>
-      <c r="G340" s="32"/>
-      <c r="H340" s="32"/>
-      <c r="I340" s="33"/>
+      <c r="F340" s="28"/>
+      <c r="G340" s="28"/>
+      <c r="H340" s="28"/>
+      <c r="I340" s="29"/>
     </row>
     <row r="341" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F341" s="32"/>
-      <c r="G341" s="32"/>
-      <c r="H341" s="32"/>
-      <c r="I341" s="33"/>
+      <c r="F341" s="28"/>
+      <c r="G341" s="28"/>
+      <c r="H341" s="28"/>
+      <c r="I341" s="29"/>
     </row>
     <row r="342" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F342" s="32"/>
-      <c r="G342" s="32"/>
-      <c r="H342" s="32"/>
-      <c r="I342" s="33"/>
+      <c r="F342" s="28"/>
+      <c r="G342" s="28"/>
+      <c r="H342" s="28"/>
+      <c r="I342" s="29"/>
     </row>
     <row r="343" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F343" s="32"/>
-      <c r="G343" s="32"/>
-      <c r="H343" s="32"/>
-      <c r="I343" s="33"/>
+      <c r="F343" s="28"/>
+      <c r="G343" s="28"/>
+      <c r="H343" s="28"/>
+      <c r="I343" s="29"/>
     </row>
     <row r="344" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F344" s="32"/>
-      <c r="G344" s="32"/>
-      <c r="H344" s="32"/>
-      <c r="I344" s="33"/>
+      <c r="F344" s="28"/>
+      <c r="G344" s="28"/>
+      <c r="H344" s="28"/>
+      <c r="I344" s="29"/>
     </row>
     <row r="345" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F345" s="32"/>
-      <c r="G345" s="32"/>
-      <c r="H345" s="32"/>
-      <c r="I345" s="33"/>
+      <c r="F345" s="28"/>
+      <c r="G345" s="28"/>
+      <c r="H345" s="28"/>
+      <c r="I345" s="29"/>
     </row>
     <row r="346" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F346" s="32"/>
-      <c r="G346" s="32"/>
-      <c r="H346" s="32"/>
-      <c r="I346" s="33"/>
+      <c r="F346" s="28"/>
+      <c r="G346" s="28"/>
+      <c r="H346" s="28"/>
+      <c r="I346" s="29"/>
     </row>
     <row r="347" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F347" s="32"/>
-      <c r="G347" s="32"/>
-      <c r="H347" s="32"/>
-      <c r="I347" s="33"/>
+      <c r="F347" s="28"/>
+      <c r="G347" s="28"/>
+      <c r="H347" s="28"/>
+      <c r="I347" s="29"/>
     </row>
     <row r="348" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F348" s="32"/>
-      <c r="G348" s="32"/>
-      <c r="H348" s="32"/>
-      <c r="I348" s="33"/>
+      <c r="F348" s="28"/>
+      <c r="G348" s="28"/>
+      <c r="H348" s="28"/>
+      <c r="I348" s="29"/>
     </row>
     <row r="349" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F349" s="32"/>
-      <c r="G349" s="32"/>
-      <c r="H349" s="32"/>
-      <c r="I349" s="33"/>
+      <c r="F349" s="28"/>
+      <c r="G349" s="28"/>
+      <c r="H349" s="28"/>
+      <c r="I349" s="29"/>
     </row>
     <row r="350" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F350" s="32"/>
-      <c r="G350" s="32"/>
-      <c r="H350" s="32"/>
-      <c r="I350" s="33"/>
+      <c r="F350" s="28"/>
+      <c r="G350" s="28"/>
+      <c r="H350" s="28"/>
+      <c r="I350" s="29"/>
     </row>
     <row r="351" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F351" s="32"/>
-      <c r="G351" s="32"/>
-      <c r="H351" s="32"/>
-      <c r="I351" s="33"/>
+      <c r="F351" s="28"/>
+      <c r="G351" s="28"/>
+      <c r="H351" s="28"/>
+      <c r="I351" s="29"/>
     </row>
     <row r="352" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F352" s="32"/>
-      <c r="G352" s="32"/>
-      <c r="H352" s="32"/>
-      <c r="I352" s="33"/>
+      <c r="F352" s="28"/>
+      <c r="G352" s="28"/>
+      <c r="H352" s="28"/>
+      <c r="I352" s="29"/>
     </row>
     <row r="353" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F353" s="32"/>
-      <c r="G353" s="32"/>
-      <c r="H353" s="32"/>
-      <c r="I353" s="33"/>
+      <c r="F353" s="28"/>
+      <c r="G353" s="28"/>
+      <c r="H353" s="28"/>
+      <c r="I353" s="29"/>
     </row>
     <row r="354" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F354" s="32"/>
-      <c r="G354" s="32"/>
-      <c r="H354" s="32"/>
-      <c r="I354" s="33"/>
+      <c r="F354" s="28"/>
+      <c r="G354" s="28"/>
+      <c r="H354" s="28"/>
+      <c r="I354" s="29"/>
     </row>
     <row r="355" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F355" s="32"/>
-      <c r="G355" s="32"/>
-      <c r="H355" s="32"/>
-      <c r="I355" s="33"/>
+      <c r="F355" s="28"/>
+      <c r="G355" s="28"/>
+      <c r="H355" s="28"/>
+      <c r="I355" s="29"/>
     </row>
     <row r="356" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F356" s="32"/>
-      <c r="G356" s="32"/>
-      <c r="H356" s="32"/>
-      <c r="I356" s="33"/>
+      <c r="F356" s="28"/>
+      <c r="G356" s="28"/>
+      <c r="H356" s="28"/>
+      <c r="I356" s="29"/>
     </row>
     <row r="357" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F357" s="32"/>
-      <c r="G357" s="32"/>
-      <c r="H357" s="32"/>
-      <c r="I357" s="33"/>
+      <c r="F357" s="28"/>
+      <c r="G357" s="28"/>
+      <c r="H357" s="28"/>
+      <c r="I357" s="29"/>
     </row>
     <row r="358" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F358" s="32"/>
-      <c r="G358" s="32"/>
-      <c r="H358" s="32"/>
-      <c r="I358" s="33"/>
+      <c r="F358" s="28"/>
+      <c r="G358" s="28"/>
+      <c r="H358" s="28"/>
+      <c r="I358" s="29"/>
     </row>
     <row r="359" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F359" s="32"/>
-      <c r="G359" s="32"/>
-      <c r="H359" s="32"/>
-      <c r="I359" s="33"/>
+      <c r="F359" s="28"/>
+      <c r="G359" s="28"/>
+      <c r="H359" s="28"/>
+      <c r="I359" s="29"/>
     </row>
     <row r="360" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F360" s="32"/>
-      <c r="G360" s="32"/>
-      <c r="H360" s="32"/>
-      <c r="I360" s="33"/>
+      <c r="F360" s="28"/>
+      <c r="G360" s="28"/>
+      <c r="H360" s="28"/>
+      <c r="I360" s="29"/>
     </row>
     <row r="361" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F361" s="32"/>
-      <c r="G361" s="32"/>
-      <c r="H361" s="32"/>
-      <c r="I361" s="33"/>
+      <c r="F361" s="28"/>
+      <c r="G361" s="28"/>
+      <c r="H361" s="28"/>
+      <c r="I361" s="29"/>
     </row>
     <row r="362" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F362" s="32"/>
-      <c r="G362" s="32"/>
-      <c r="H362" s="32"/>
-      <c r="I362" s="33"/>
+      <c r="F362" s="28"/>
+      <c r="G362" s="28"/>
+      <c r="H362" s="28"/>
+      <c r="I362" s="29"/>
     </row>
     <row r="363" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F363" s="32"/>
-      <c r="G363" s="32"/>
-      <c r="H363" s="32"/>
-      <c r="I363" s="33"/>
+      <c r="F363" s="28"/>
+      <c r="G363" s="28"/>
+      <c r="H363" s="28"/>
+      <c r="I363" s="29"/>
     </row>
     <row r="364" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F364" s="32"/>
-      <c r="G364" s="32"/>
-      <c r="H364" s="32"/>
-      <c r="I364" s="33"/>
+      <c r="F364" s="28"/>
+      <c r="G364" s="28"/>
+      <c r="H364" s="28"/>
+      <c r="I364" s="29"/>
     </row>
     <row r="365" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F365" s="32"/>
-      <c r="G365" s="32"/>
-      <c r="H365" s="32"/>
-      <c r="I365" s="33"/>
+      <c r="F365" s="28"/>
+      <c r="G365" s="28"/>
+      <c r="H365" s="28"/>
+      <c r="I365" s="29"/>
     </row>
     <row r="366" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F366" s="32"/>
-      <c r="G366" s="32"/>
-      <c r="H366" s="32"/>
-      <c r="I366" s="33"/>
+      <c r="F366" s="28"/>
+      <c r="G366" s="28"/>
+      <c r="H366" s="28"/>
+      <c r="I366" s="29"/>
     </row>
     <row r="367" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F367" s="32"/>
-      <c r="G367" s="32"/>
-      <c r="H367" s="32"/>
-      <c r="I367" s="33"/>
+      <c r="F367" s="28"/>
+      <c r="G367" s="28"/>
+      <c r="H367" s="28"/>
+      <c r="I367" s="29"/>
     </row>
     <row r="368" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F368" s="32"/>
-      <c r="G368" s="32"/>
-      <c r="H368" s="32"/>
-      <c r="I368" s="33"/>
+      <c r="F368" s="28"/>
+      <c r="G368" s="28"/>
+      <c r="H368" s="28"/>
+      <c r="I368" s="29"/>
     </row>
     <row r="369" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F369" s="32"/>
-      <c r="G369" s="32"/>
-      <c r="H369" s="32"/>
-      <c r="I369" s="33"/>
+      <c r="F369" s="28"/>
+      <c r="G369" s="28"/>
+      <c r="H369" s="28"/>
+      <c r="I369" s="29"/>
     </row>
     <row r="370" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F370" s="32"/>
-      <c r="G370" s="32"/>
-      <c r="H370" s="32"/>
-      <c r="I370" s="33"/>
+      <c r="F370" s="28"/>
+      <c r="G370" s="28"/>
+      <c r="H370" s="28"/>
+      <c r="I370" s="29"/>
     </row>
     <row r="371" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F371" s="32"/>
-      <c r="G371" s="32"/>
-      <c r="H371" s="32"/>
-      <c r="I371" s="33"/>
+      <c r="F371" s="28"/>
+      <c r="G371" s="28"/>
+      <c r="H371" s="28"/>
+      <c r="I371" s="29"/>
     </row>
     <row r="372" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F372" s="32"/>
-      <c r="G372" s="32"/>
-      <c r="H372" s="32"/>
-      <c r="I372" s="33"/>
+      <c r="F372" s="28"/>
+      <c r="G372" s="28"/>
+      <c r="H372" s="28"/>
+      <c r="I372" s="29"/>
     </row>
     <row r="373" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F373" s="32"/>
-      <c r="G373" s="32"/>
-      <c r="H373" s="32"/>
-      <c r="I373" s="33"/>
+      <c r="F373" s="28"/>
+      <c r="G373" s="28"/>
+      <c r="H373" s="28"/>
+      <c r="I373" s="29"/>
     </row>
     <row r="374" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F374" s="32"/>
-      <c r="G374" s="32"/>
-      <c r="H374" s="32"/>
-      <c r="I374" s="33"/>
+      <c r="F374" s="28"/>
+      <c r="G374" s="28"/>
+      <c r="H374" s="28"/>
+      <c r="I374" s="29"/>
     </row>
     <row r="375" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F375" s="32"/>
-      <c r="G375" s="32"/>
-      <c r="H375" s="32"/>
-      <c r="I375" s="33"/>
+      <c r="F375" s="28"/>
+      <c r="G375" s="28"/>
+      <c r="H375" s="28"/>
+      <c r="I375" s="29"/>
     </row>
     <row r="376" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F376" s="32"/>
-      <c r="G376" s="32"/>
-      <c r="H376" s="32"/>
-      <c r="I376" s="33"/>
+      <c r="F376" s="28"/>
+      <c r="G376" s="28"/>
+      <c r="H376" s="28"/>
+      <c r="I376" s="29"/>
     </row>
     <row r="377" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F377" s="32"/>
-      <c r="G377" s="32"/>
-      <c r="H377" s="32"/>
-      <c r="I377" s="33"/>
+      <c r="F377" s="28"/>
+      <c r="G377" s="28"/>
+      <c r="H377" s="28"/>
+      <c r="I377" s="29"/>
     </row>
     <row r="378" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F378" s="32"/>
-      <c r="G378" s="32"/>
-      <c r="H378" s="32"/>
-      <c r="I378" s="33"/>
+      <c r="F378" s="28"/>
+      <c r="G378" s="28"/>
+      <c r="H378" s="28"/>
+      <c r="I378" s="29"/>
     </row>
     <row r="379" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F379" s="32"/>
-      <c r="G379" s="32"/>
-      <c r="H379" s="32"/>
-      <c r="I379" s="33"/>
+      <c r="F379" s="28"/>
+      <c r="G379" s="28"/>
+      <c r="H379" s="28"/>
+      <c r="I379" s="29"/>
     </row>
     <row r="380" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F380" s="32"/>
-      <c r="G380" s="32"/>
-      <c r="H380" s="32"/>
-      <c r="I380" s="33"/>
+      <c r="F380" s="28"/>
+      <c r="G380" s="28"/>
+      <c r="H380" s="28"/>
+      <c r="I380" s="29"/>
     </row>
     <row r="381" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F381" s="32"/>
-      <c r="G381" s="32"/>
-      <c r="H381" s="32"/>
-      <c r="I381" s="33"/>
+      <c r="F381" s="28"/>
+      <c r="G381" s="28"/>
+      <c r="H381" s="28"/>
+      <c r="I381" s="29"/>
     </row>
     <row r="382" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F382" s="32"/>
-      <c r="G382" s="32"/>
-      <c r="H382" s="32"/>
-      <c r="I382" s="33"/>
+      <c r="F382" s="28"/>
+      <c r="G382" s="28"/>
+      <c r="H382" s="28"/>
+      <c r="I382" s="29"/>
     </row>
     <row r="383" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F383" s="28"/>
-      <c r="G383" s="28"/>
-      <c r="H383" s="28"/>
-      <c r="I383" s="28"/>
+      <c r="F383" s="26"/>
+      <c r="G383" s="26"/>
+      <c r="H383" s="26"/>
+      <c r="I383" s="26"/>
     </row>
     <row r="384" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F384" s="29"/>
-      <c r="G384" s="30"/>
-      <c r="H384" s="30"/>
-      <c r="I384" s="30"/>
+      <c r="F384" s="32"/>
+      <c r="G384" s="33"/>
+      <c r="H384" s="33"/>
+      <c r="I384" s="33"/>
     </row>
     <row r="385" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F385" s="31"/>
-      <c r="G385" s="31"/>
-      <c r="H385" s="31"/>
-      <c r="I385" s="31"/>
+      <c r="F385" s="27"/>
+      <c r="G385" s="27"/>
+      <c r="H385" s="27"/>
+      <c r="I385" s="27"/>
     </row>
     <row r="386" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F386" s="32"/>
-      <c r="G386" s="32"/>
-      <c r="H386" s="32"/>
-      <c r="I386" s="32"/>
+      <c r="F386" s="28"/>
+      <c r="G386" s="28"/>
+      <c r="H386" s="28"/>
+      <c r="I386" s="28"/>
     </row>
     <row r="387" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F387" s="32"/>
-      <c r="G387" s="32"/>
-      <c r="H387" s="32"/>
-      <c r="I387" s="32"/>
+      <c r="F387" s="28"/>
+      <c r="G387" s="28"/>
+      <c r="H387" s="28"/>
+      <c r="I387" s="28"/>
     </row>
     <row r="388" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F388" s="32"/>
-      <c r="G388" s="32"/>
-      <c r="H388" s="32"/>
-      <c r="I388" s="32"/>
+      <c r="F388" s="28"/>
+      <c r="G388" s="28"/>
+      <c r="H388" s="28"/>
+      <c r="I388" s="28"/>
     </row>
     <row r="389" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F389" s="32"/>
-      <c r="G389" s="32"/>
-      <c r="H389" s="32"/>
-      <c r="I389" s="32"/>
+      <c r="F389" s="28"/>
+      <c r="G389" s="28"/>
+      <c r="H389" s="28"/>
+      <c r="I389" s="28"/>
     </row>
     <row r="390" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F390" s="32"/>
-      <c r="G390" s="32"/>
-      <c r="H390" s="32"/>
-      <c r="I390" s="32"/>
+      <c r="F390" s="28"/>
+      <c r="G390" s="28"/>
+      <c r="H390" s="28"/>
+      <c r="I390" s="28"/>
     </row>
     <row r="391" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F391" s="32"/>
-      <c r="G391" s="32"/>
-      <c r="H391" s="32"/>
-      <c r="I391" s="32"/>
+      <c r="F391" s="28"/>
+      <c r="G391" s="28"/>
+      <c r="H391" s="28"/>
+      <c r="I391" s="28"/>
     </row>
     <row r="392" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F392" s="32"/>
-      <c r="G392" s="32"/>
-      <c r="H392" s="32"/>
-      <c r="I392" s="32"/>
+      <c r="F392" s="28"/>
+      <c r="G392" s="28"/>
+      <c r="H392" s="28"/>
+      <c r="I392" s="28"/>
     </row>
     <row r="393" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F393" s="32"/>
-      <c r="G393" s="32"/>
-      <c r="H393" s="32"/>
-      <c r="I393" s="32"/>
+      <c r="F393" s="28"/>
+      <c r="G393" s="28"/>
+      <c r="H393" s="28"/>
+      <c r="I393" s="28"/>
     </row>
     <row r="394" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F394" s="32"/>
-      <c r="G394" s="32"/>
-      <c r="H394" s="32"/>
-      <c r="I394" s="32"/>
+      <c r="F394" s="28"/>
+      <c r="G394" s="28"/>
+      <c r="H394" s="28"/>
+      <c r="I394" s="28"/>
     </row>
     <row r="395" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F395" s="32"/>
-      <c r="G395" s="32"/>
-      <c r="H395" s="32"/>
-      <c r="I395" s="32"/>
+      <c r="F395" s="28"/>
+      <c r="G395" s="28"/>
+      <c r="H395" s="28"/>
+      <c r="I395" s="28"/>
     </row>
     <row r="396" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F396" s="32"/>
-      <c r="G396" s="32"/>
-      <c r="H396" s="32"/>
-      <c r="I396" s="32"/>
+      <c r="F396" s="28"/>
+      <c r="G396" s="28"/>
+      <c r="H396" s="28"/>
+      <c r="I396" s="28"/>
     </row>
     <row r="397" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F397" s="32"/>
-      <c r="G397" s="32"/>
-      <c r="H397" s="32"/>
-      <c r="I397" s="32"/>
+      <c r="F397" s="28"/>
+      <c r="G397" s="28"/>
+      <c r="H397" s="28"/>
+      <c r="I397" s="28"/>
     </row>
     <row r="398" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F398" s="32"/>
-      <c r="G398" s="32"/>
-      <c r="H398" s="32"/>
-      <c r="I398" s="32"/>
+      <c r="F398" s="28"/>
+      <c r="G398" s="28"/>
+      <c r="H398" s="28"/>
+      <c r="I398" s="28"/>
     </row>
     <row r="399" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F399" s="32"/>
-      <c r="G399" s="32"/>
-      <c r="H399" s="32"/>
-      <c r="I399" s="32"/>
+      <c r="F399" s="28"/>
+      <c r="G399" s="28"/>
+      <c r="H399" s="28"/>
+      <c r="I399" s="28"/>
     </row>
     <row r="400" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F400" s="32"/>
-      <c r="G400" s="32"/>
-      <c r="H400" s="32"/>
-      <c r="I400" s="32"/>
+      <c r="F400" s="28"/>
+      <c r="G400" s="28"/>
+      <c r="H400" s="28"/>
+      <c r="I400" s="28"/>
     </row>
     <row r="401" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F401" s="32"/>
-      <c r="G401" s="32"/>
-      <c r="H401" s="32"/>
-      <c r="I401" s="32"/>
+      <c r="F401" s="28"/>
+      <c r="G401" s="28"/>
+      <c r="H401" s="28"/>
+      <c r="I401" s="28"/>
     </row>
     <row r="402" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F402" s="32"/>
-      <c r="G402" s="32"/>
-      <c r="H402" s="32"/>
-      <c r="I402" s="32"/>
+      <c r="F402" s="28"/>
+      <c r="G402" s="28"/>
+      <c r="H402" s="28"/>
+      <c r="I402" s="28"/>
     </row>
     <row r="403" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F403" s="32"/>
-      <c r="G403" s="32"/>
-      <c r="H403" s="32"/>
-      <c r="I403" s="32"/>
+      <c r="F403" s="28"/>
+      <c r="G403" s="28"/>
+      <c r="H403" s="28"/>
+      <c r="I403" s="28"/>
     </row>
     <row r="404" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F404" s="32"/>
-      <c r="G404" s="32"/>
-      <c r="H404" s="32"/>
-      <c r="I404" s="32"/>
+      <c r="F404" s="28"/>
+      <c r="G404" s="28"/>
+      <c r="H404" s="28"/>
+      <c r="I404" s="28"/>
     </row>
     <row r="405" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F405" s="32"/>
-      <c r="G405" s="32"/>
-      <c r="H405" s="32"/>
-      <c r="I405" s="32"/>
+      <c r="F405" s="28"/>
+      <c r="G405" s="28"/>
+      <c r="H405" s="28"/>
+      <c r="I405" s="28"/>
     </row>
     <row r="406" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F406" s="32"/>
-      <c r="G406" s="32"/>
-      <c r="H406" s="32"/>
-      <c r="I406" s="32"/>
+      <c r="F406" s="28"/>
+      <c r="G406" s="28"/>
+      <c r="H406" s="28"/>
+      <c r="I406" s="28"/>
     </row>
     <row r="407" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F407" s="32"/>
-      <c r="G407" s="32"/>
-      <c r="H407" s="32"/>
-      <c r="I407" s="32"/>
+      <c r="F407" s="28"/>
+      <c r="G407" s="28"/>
+      <c r="H407" s="28"/>
+      <c r="I407" s="28"/>
     </row>
     <row r="408" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F408" s="32"/>
-      <c r="G408" s="32"/>
-      <c r="H408" s="32"/>
-      <c r="I408" s="32"/>
+      <c r="F408" s="28"/>
+      <c r="G408" s="28"/>
+      <c r="H408" s="28"/>
+      <c r="I408" s="28"/>
     </row>
     <row r="409" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F409" s="32"/>
-      <c r="G409" s="32"/>
-      <c r="H409" s="32"/>
-      <c r="I409" s="32"/>
+      <c r="F409" s="28"/>
+      <c r="G409" s="28"/>
+      <c r="H409" s="28"/>
+      <c r="I409" s="28"/>
     </row>
     <row r="410" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F410" s="32"/>
-      <c r="G410" s="32"/>
-      <c r="H410" s="32"/>
-      <c r="I410" s="32"/>
+      <c r="F410" s="28"/>
+      <c r="G410" s="28"/>
+      <c r="H410" s="28"/>
+      <c r="I410" s="28"/>
     </row>
     <row r="411" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F411" s="32"/>
-      <c r="G411" s="32"/>
-      <c r="H411" s="32"/>
-      <c r="I411" s="32"/>
+      <c r="F411" s="28"/>
+      <c r="G411" s="28"/>
+      <c r="H411" s="28"/>
+      <c r="I411" s="28"/>
     </row>
     <row r="412" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F412" s="32"/>
-      <c r="G412" s="32"/>
-      <c r="H412" s="32"/>
-      <c r="I412" s="32"/>
+      <c r="F412" s="28"/>
+      <c r="G412" s="28"/>
+      <c r="H412" s="28"/>
+      <c r="I412" s="28"/>
     </row>
     <row r="413" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F413" s="32"/>
-      <c r="G413" s="32"/>
-      <c r="H413" s="32"/>
-      <c r="I413" s="32"/>
+      <c r="F413" s="28"/>
+      <c r="G413" s="28"/>
+      <c r="H413" s="28"/>
+      <c r="I413" s="28"/>
     </row>
     <row r="414" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F414" s="32"/>
-      <c r="G414" s="32"/>
-      <c r="H414" s="32"/>
-      <c r="I414" s="32"/>
+      <c r="F414" s="28"/>
+      <c r="G414" s="28"/>
+      <c r="H414" s="28"/>
+      <c r="I414" s="28"/>
     </row>
     <row r="415" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F415" s="32"/>
-      <c r="G415" s="32"/>
-      <c r="H415" s="32"/>
-      <c r="I415" s="32"/>
+      <c r="F415" s="28"/>
+      <c r="G415" s="28"/>
+      <c r="H415" s="28"/>
+      <c r="I415" s="28"/>
     </row>
     <row r="416" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F416" s="32"/>
-      <c r="G416" s="32"/>
-      <c r="H416" s="32"/>
-      <c r="I416" s="32"/>
+      <c r="F416" s="28"/>
+      <c r="G416" s="28"/>
+      <c r="H416" s="28"/>
+      <c r="I416" s="28"/>
     </row>
     <row r="417" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F417" s="32"/>
-      <c r="G417" s="32"/>
-      <c r="H417" s="32"/>
-      <c r="I417" s="32"/>
+      <c r="F417" s="28"/>
+      <c r="G417" s="28"/>
+      <c r="H417" s="28"/>
+      <c r="I417" s="28"/>
     </row>
     <row r="418" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F418" s="32"/>
-      <c r="G418" s="32"/>
-      <c r="H418" s="32"/>
-      <c r="I418" s="32"/>
+      <c r="F418" s="28"/>
+      <c r="G418" s="28"/>
+      <c r="H418" s="28"/>
+      <c r="I418" s="28"/>
     </row>
     <row r="419" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F419" s="32"/>
-      <c r="G419" s="32"/>
-      <c r="H419" s="32"/>
-      <c r="I419" s="32"/>
+      <c r="F419" s="28"/>
+      <c r="G419" s="28"/>
+      <c r="H419" s="28"/>
+      <c r="I419" s="28"/>
     </row>
     <row r="420" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F420" s="32"/>
-      <c r="G420" s="32"/>
-      <c r="H420" s="32"/>
-      <c r="I420" s="32"/>
+      <c r="F420" s="28"/>
+      <c r="G420" s="28"/>
+      <c r="H420" s="28"/>
+      <c r="I420" s="28"/>
     </row>
     <row r="421" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F421" s="32"/>
-      <c r="G421" s="32"/>
-      <c r="H421" s="32"/>
-      <c r="I421" s="32"/>
+      <c r="F421" s="28"/>
+      <c r="G421" s="28"/>
+      <c r="H421" s="28"/>
+      <c r="I421" s="28"/>
     </row>
     <row r="422" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F422" s="32"/>
-      <c r="G422" s="32"/>
-      <c r="H422" s="32"/>
-      <c r="I422" s="32"/>
+      <c r="F422" s="28"/>
+      <c r="G422" s="28"/>
+      <c r="H422" s="28"/>
+      <c r="I422" s="28"/>
     </row>
     <row r="423" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F423" s="32"/>
-      <c r="G423" s="32"/>
-      <c r="H423" s="32"/>
-      <c r="I423" s="32"/>
+      <c r="F423" s="28"/>
+      <c r="G423" s="28"/>
+      <c r="H423" s="28"/>
+      <c r="I423" s="28"/>
     </row>
     <row r="424" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F424" s="32"/>
-      <c r="G424" s="32"/>
-      <c r="H424" s="32"/>
-      <c r="I424" s="32"/>
+      <c r="F424" s="28"/>
+      <c r="G424" s="28"/>
+      <c r="H424" s="28"/>
+      <c r="I424" s="28"/>
     </row>
     <row r="425" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F425" s="32"/>
-      <c r="G425" s="32"/>
-      <c r="H425" s="32"/>
-      <c r="I425" s="32"/>
+      <c r="F425" s="28"/>
+      <c r="G425" s="28"/>
+      <c r="H425" s="28"/>
+      <c r="I425" s="28"/>
     </row>
     <row r="426" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F426" s="32"/>
-      <c r="G426" s="32"/>
-      <c r="H426" s="32"/>
-      <c r="I426" s="32"/>
+      <c r="F426" s="28"/>
+      <c r="G426" s="28"/>
+      <c r="H426" s="28"/>
+      <c r="I426" s="28"/>
     </row>
     <row r="427" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F427" s="32"/>
-      <c r="G427" s="32"/>
-      <c r="H427" s="32"/>
-      <c r="I427" s="32"/>
+      <c r="F427" s="28"/>
+      <c r="G427" s="28"/>
+      <c r="H427" s="28"/>
+      <c r="I427" s="28"/>
     </row>
     <row r="428" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F428" s="32"/>
-      <c r="G428" s="32"/>
-      <c r="H428" s="32"/>
-      <c r="I428" s="32"/>
+      <c r="F428" s="28"/>
+      <c r="G428" s="28"/>
+      <c r="H428" s="28"/>
+      <c r="I428" s="28"/>
     </row>
     <row r="429" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F429" s="32"/>
-      <c r="G429" s="32"/>
-      <c r="H429" s="32"/>
-      <c r="I429" s="32"/>
+      <c r="F429" s="28"/>
+      <c r="G429" s="28"/>
+      <c r="H429" s="28"/>
+      <c r="I429" s="28"/>
     </row>
     <row r="430" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F430" s="32"/>
-      <c r="G430" s="32"/>
-      <c r="H430" s="32"/>
-      <c r="I430" s="32"/>
+      <c r="F430" s="28"/>
+      <c r="G430" s="28"/>
+      <c r="H430" s="28"/>
+      <c r="I430" s="28"/>
     </row>
     <row r="431" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F431" s="32"/>
-      <c r="G431" s="32"/>
-      <c r="H431" s="32"/>
-      <c r="I431" s="32"/>
+      <c r="F431" s="28"/>
+      <c r="G431" s="28"/>
+      <c r="H431" s="28"/>
+      <c r="I431" s="28"/>
     </row>
     <row r="432" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F432" s="32"/>
-      <c r="G432" s="32"/>
-      <c r="H432" s="32"/>
-      <c r="I432" s="32"/>
+      <c r="F432" s="28"/>
+      <c r="G432" s="28"/>
+      <c r="H432" s="28"/>
+      <c r="I432" s="28"/>
     </row>
     <row r="433" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F433" s="32"/>
-      <c r="G433" s="32"/>
-      <c r="H433" s="32"/>
-      <c r="I433" s="32"/>
+      <c r="F433" s="28"/>
+      <c r="G433" s="28"/>
+      <c r="H433" s="28"/>
+      <c r="I433" s="28"/>
     </row>
     <row r="434" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F434" s="32"/>
-      <c r="G434" s="32"/>
-      <c r="H434" s="32"/>
-      <c r="I434" s="32"/>
+      <c r="F434" s="28"/>
+      <c r="G434" s="28"/>
+      <c r="H434" s="28"/>
+      <c r="I434" s="28"/>
     </row>
     <row r="435" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F435" s="32"/>
-      <c r="G435" s="32"/>
-      <c r="H435" s="32"/>
-      <c r="I435" s="32"/>
+      <c r="F435" s="28"/>
+      <c r="G435" s="28"/>
+      <c r="H435" s="28"/>
+      <c r="I435" s="28"/>
     </row>
     <row r="436" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F436" s="32"/>
-      <c r="G436" s="32"/>
-      <c r="H436" s="32"/>
-      <c r="I436" s="32"/>
+      <c r="F436" s="28"/>
+      <c r="G436" s="28"/>
+      <c r="H436" s="28"/>
+      <c r="I436" s="28"/>
     </row>
     <row r="437" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F437" s="32"/>
-      <c r="G437" s="32"/>
-      <c r="H437" s="32"/>
-      <c r="I437" s="33"/>
+      <c r="F437" s="28"/>
+      <c r="G437" s="28"/>
+      <c r="H437" s="28"/>
+      <c r="I437" s="29"/>
     </row>
     <row r="438" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F438" s="28"/>
-      <c r="G438" s="28"/>
-      <c r="H438" s="28"/>
-      <c r="I438" s="28"/>
+      <c r="F438" s="26"/>
+      <c r="G438" s="26"/>
+      <c r="H438" s="26"/>
+      <c r="I438" s="26"/>
     </row>
     <row r="439" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F439" s="29"/>
-      <c r="G439" s="30"/>
-      <c r="H439" s="30"/>
-      <c r="I439" s="30"/>
+      <c r="F439" s="32"/>
+      <c r="G439" s="33"/>
+      <c r="H439" s="33"/>
+      <c r="I439" s="33"/>
     </row>
     <row r="440" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F440" s="31"/>
-      <c r="G440" s="31"/>
-      <c r="H440" s="31"/>
-      <c r="I440" s="31"/>
+      <c r="F440" s="27"/>
+      <c r="G440" s="27"/>
+      <c r="H440" s="27"/>
+      <c r="I440" s="27"/>
     </row>
     <row r="441" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F441" s="32"/>
-      <c r="G441" s="32"/>
-      <c r="H441" s="32"/>
-      <c r="I441" s="32"/>
+      <c r="F441" s="28"/>
+      <c r="G441" s="28"/>
+      <c r="H441" s="28"/>
+      <c r="I441" s="28"/>
     </row>
     <row r="442" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F442" s="32"/>
-      <c r="G442" s="32"/>
-      <c r="H442" s="32"/>
-      <c r="I442" s="32"/>
+      <c r="F442" s="28"/>
+      <c r="G442" s="28"/>
+      <c r="H442" s="28"/>
+      <c r="I442" s="28"/>
     </row>
     <row r="443" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F443" s="32"/>
-      <c r="G443" s="32"/>
-      <c r="H443" s="32"/>
-      <c r="I443" s="32"/>
+      <c r="F443" s="28"/>
+      <c r="G443" s="28"/>
+      <c r="H443" s="28"/>
+      <c r="I443" s="28"/>
     </row>
     <row r="444" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F444" s="32"/>
-      <c r="G444" s="32"/>
-      <c r="H444" s="32"/>
-      <c r="I444" s="32"/>
+      <c r="F444" s="28"/>
+      <c r="G444" s="28"/>
+      <c r="H444" s="28"/>
+      <c r="I444" s="28"/>
     </row>
     <row r="445" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F445" s="32"/>
-      <c r="G445" s="32"/>
-      <c r="H445" s="32"/>
-      <c r="I445" s="32"/>
+      <c r="F445" s="28"/>
+      <c r="G445" s="28"/>
+      <c r="H445" s="28"/>
+      <c r="I445" s="28"/>
     </row>
     <row r="446" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F446" s="32"/>
-      <c r="G446" s="32"/>
-      <c r="H446" s="32"/>
-      <c r="I446" s="32"/>
+      <c r="F446" s="28"/>
+      <c r="G446" s="28"/>
+      <c r="H446" s="28"/>
+      <c r="I446" s="28"/>
     </row>
     <row r="447" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F447" s="32"/>
-      <c r="G447" s="32"/>
-      <c r="H447" s="32"/>
-      <c r="I447" s="32"/>
+      <c r="F447" s="28"/>
+      <c r="G447" s="28"/>
+      <c r="H447" s="28"/>
+      <c r="I447" s="28"/>
     </row>
     <row r="448" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F448" s="32"/>
-      <c r="G448" s="32"/>
-      <c r="H448" s="32"/>
-      <c r="I448" s="32"/>
+      <c r="F448" s="28"/>
+      <c r="G448" s="28"/>
+      <c r="H448" s="28"/>
+      <c r="I448" s="28"/>
     </row>
     <row r="449" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F449" s="32"/>
-      <c r="G449" s="32"/>
-      <c r="H449" s="32"/>
-      <c r="I449" s="32"/>
+      <c r="F449" s="28"/>
+      <c r="G449" s="28"/>
+      <c r="H449" s="28"/>
+      <c r="I449" s="28"/>
     </row>
     <row r="450" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F450" s="32"/>
-      <c r="G450" s="32"/>
-      <c r="H450" s="32"/>
-      <c r="I450" s="32"/>
+      <c r="F450" s="28"/>
+      <c r="G450" s="28"/>
+      <c r="H450" s="28"/>
+      <c r="I450" s="28"/>
     </row>
     <row r="451" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F451" s="32"/>
-      <c r="G451" s="32"/>
-      <c r="H451" s="32"/>
-      <c r="I451" s="32"/>
+      <c r="F451" s="28"/>
+      <c r="G451" s="28"/>
+      <c r="H451" s="28"/>
+      <c r="I451" s="28"/>
     </row>
     <row r="452" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F452" s="32"/>
-      <c r="G452" s="32"/>
-      <c r="H452" s="32"/>
-      <c r="I452" s="32"/>
+      <c r="F452" s="28"/>
+      <c r="G452" s="28"/>
+      <c r="H452" s="28"/>
+      <c r="I452" s="28"/>
     </row>
     <row r="453" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F453" s="32"/>
-      <c r="G453" s="32"/>
-      <c r="H453" s="32"/>
-      <c r="I453" s="32"/>
+      <c r="F453" s="28"/>
+      <c r="G453" s="28"/>
+      <c r="H453" s="28"/>
+      <c r="I453" s="28"/>
     </row>
     <row r="454" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F454" s="32"/>
-      <c r="G454" s="32"/>
-      <c r="H454" s="32"/>
-      <c r="I454" s="32"/>
+      <c r="F454" s="28"/>
+      <c r="G454" s="28"/>
+      <c r="H454" s="28"/>
+      <c r="I454" s="28"/>
     </row>
     <row r="455" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F455" s="32"/>
-      <c r="G455" s="32"/>
-      <c r="H455" s="32"/>
-      <c r="I455" s="32"/>
+      <c r="F455" s="28"/>
+      <c r="G455" s="28"/>
+      <c r="H455" s="28"/>
+      <c r="I455" s="28"/>
     </row>
     <row r="456" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F456" s="32"/>
-      <c r="G456" s="32"/>
-      <c r="H456" s="32"/>
-      <c r="I456" s="32"/>
+      <c r="F456" s="28"/>
+      <c r="G456" s="28"/>
+      <c r="H456" s="28"/>
+      <c r="I456" s="28"/>
     </row>
     <row r="457" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F457" s="32"/>
-      <c r="G457" s="32"/>
-      <c r="H457" s="32"/>
-      <c r="I457" s="32"/>
+      <c r="F457" s="28"/>
+      <c r="G457" s="28"/>
+      <c r="H457" s="28"/>
+      <c r="I457" s="28"/>
     </row>
     <row r="458" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F458" s="32"/>
-      <c r="G458" s="32"/>
-      <c r="H458" s="32"/>
-      <c r="I458" s="32"/>
+      <c r="F458" s="28"/>
+      <c r="G458" s="28"/>
+      <c r="H458" s="28"/>
+      <c r="I458" s="28"/>
     </row>
     <row r="459" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F459" s="32"/>
-      <c r="G459" s="32"/>
-      <c r="H459" s="32"/>
-      <c r="I459" s="32"/>
+      <c r="F459" s="28"/>
+      <c r="G459" s="28"/>
+      <c r="H459" s="28"/>
+      <c r="I459" s="28"/>
     </row>
     <row r="460" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F460" s="32"/>
-      <c r="G460" s="32"/>
-      <c r="H460" s="32"/>
-      <c r="I460" s="32"/>
+      <c r="F460" s="28"/>
+      <c r="G460" s="28"/>
+      <c r="H460" s="28"/>
+      <c r="I460" s="28"/>
     </row>
     <row r="461" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F461" s="32"/>
-      <c r="G461" s="32"/>
-      <c r="H461" s="32"/>
-      <c r="I461" s="32"/>
+      <c r="F461" s="28"/>
+      <c r="G461" s="28"/>
+      <c r="H461" s="28"/>
+      <c r="I461" s="28"/>
     </row>
     <row r="462" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F462" s="32"/>
-      <c r="G462" s="32"/>
-      <c r="H462" s="32"/>
-      <c r="I462" s="32"/>
+      <c r="F462" s="28"/>
+      <c r="G462" s="28"/>
+      <c r="H462" s="28"/>
+      <c r="I462" s="28"/>
     </row>
     <row r="463" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F463" s="32"/>
-      <c r="G463" s="32"/>
-      <c r="H463" s="32"/>
-      <c r="I463" s="32"/>
+      <c r="F463" s="28"/>
+      <c r="G463" s="28"/>
+      <c r="H463" s="28"/>
+      <c r="I463" s="28"/>
     </row>
     <row r="464" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F464" s="32"/>
-      <c r="G464" s="32"/>
-      <c r="H464" s="32"/>
-      <c r="I464" s="32"/>
+      <c r="F464" s="28"/>
+      <c r="G464" s="28"/>
+      <c r="H464" s="28"/>
+      <c r="I464" s="28"/>
     </row>
     <row r="465" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F465" s="32"/>
-      <c r="G465" s="32"/>
-      <c r="H465" s="32"/>
-      <c r="I465" s="32"/>
+      <c r="F465" s="28"/>
+      <c r="G465" s="28"/>
+      <c r="H465" s="28"/>
+      <c r="I465" s="28"/>
     </row>
     <row r="466" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F466" s="32"/>
-      <c r="G466" s="32"/>
-      <c r="H466" s="32"/>
-      <c r="I466" s="32"/>
+      <c r="F466" s="28"/>
+      <c r="G466" s="28"/>
+      <c r="H466" s="28"/>
+      <c r="I466" s="28"/>
     </row>
     <row r="467" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F467" s="32"/>
-      <c r="G467" s="32"/>
-      <c r="H467" s="32"/>
-      <c r="I467" s="32"/>
+      <c r="F467" s="28"/>
+      <c r="G467" s="28"/>
+      <c r="H467" s="28"/>
+      <c r="I467" s="28"/>
     </row>
     <row r="468" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F468" s="32"/>
-      <c r="G468" s="32"/>
-      <c r="H468" s="32"/>
-      <c r="I468" s="32"/>
+      <c r="F468" s="28"/>
+      <c r="G468" s="28"/>
+      <c r="H468" s="28"/>
+      <c r="I468" s="28"/>
     </row>
     <row r="469" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F469" s="32"/>
-      <c r="G469" s="32"/>
-      <c r="H469" s="32"/>
-      <c r="I469" s="32"/>
+      <c r="F469" s="28"/>
+      <c r="G469" s="28"/>
+      <c r="H469" s="28"/>
+      <c r="I469" s="28"/>
     </row>
     <row r="470" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F470" s="32"/>
-      <c r="G470" s="32"/>
-      <c r="H470" s="32"/>
-      <c r="I470" s="32"/>
+      <c r="F470" s="28"/>
+      <c r="G470" s="28"/>
+      <c r="H470" s="28"/>
+      <c r="I470" s="28"/>
     </row>
     <row r="471" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F471" s="32"/>
-      <c r="G471" s="32"/>
-      <c r="H471" s="32"/>
-      <c r="I471" s="32"/>
+      <c r="F471" s="28"/>
+      <c r="G471" s="28"/>
+      <c r="H471" s="28"/>
+      <c r="I471" s="28"/>
     </row>
     <row r="472" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F472" s="32"/>
-      <c r="G472" s="32"/>
-      <c r="H472" s="32"/>
-      <c r="I472" s="32"/>
+      <c r="F472" s="28"/>
+      <c r="G472" s="28"/>
+      <c r="H472" s="28"/>
+      <c r="I472" s="28"/>
     </row>
     <row r="473" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F473" s="32"/>
-      <c r="G473" s="32"/>
-      <c r="H473" s="32"/>
-      <c r="I473" s="32"/>
+      <c r="F473" s="28"/>
+      <c r="G473" s="28"/>
+      <c r="H473" s="28"/>
+      <c r="I473" s="28"/>
     </row>
     <row r="474" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F474" s="32"/>
-      <c r="G474" s="32"/>
-      <c r="H474" s="32"/>
-      <c r="I474" s="32"/>
+      <c r="F474" s="28"/>
+      <c r="G474" s="28"/>
+      <c r="H474" s="28"/>
+      <c r="I474" s="28"/>
     </row>
     <row r="475" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F475" s="32"/>
-      <c r="G475" s="32"/>
-      <c r="H475" s="32"/>
-      <c r="I475" s="32"/>
+      <c r="F475" s="28"/>
+      <c r="G475" s="28"/>
+      <c r="H475" s="28"/>
+      <c r="I475" s="28"/>
     </row>
     <row r="476" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F476" s="32"/>
-      <c r="G476" s="32"/>
-      <c r="H476" s="32"/>
-      <c r="I476" s="32"/>
+      <c r="F476" s="28"/>
+      <c r="G476" s="28"/>
+      <c r="H476" s="28"/>
+      <c r="I476" s="28"/>
     </row>
     <row r="477" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F477" s="32"/>
-      <c r="G477" s="32"/>
-      <c r="H477" s="32"/>
-      <c r="I477" s="32"/>
+      <c r="F477" s="28"/>
+      <c r="G477" s="28"/>
+      <c r="H477" s="28"/>
+      <c r="I477" s="28"/>
     </row>
     <row r="478" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F478" s="32"/>
-      <c r="G478" s="32"/>
-      <c r="H478" s="32"/>
-      <c r="I478" s="32"/>
+      <c r="F478" s="28"/>
+      <c r="G478" s="28"/>
+      <c r="H478" s="28"/>
+      <c r="I478" s="28"/>
     </row>
     <row r="479" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F479" s="32"/>
-      <c r="G479" s="32"/>
-      <c r="H479" s="32"/>
-      <c r="I479" s="32"/>
+      <c r="F479" s="28"/>
+      <c r="G479" s="28"/>
+      <c r="H479" s="28"/>
+      <c r="I479" s="28"/>
     </row>
     <row r="480" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F480" s="32"/>
-      <c r="G480" s="32"/>
-      <c r="H480" s="32"/>
-      <c r="I480" s="32"/>
+      <c r="F480" s="28"/>
+      <c r="G480" s="28"/>
+      <c r="H480" s="28"/>
+      <c r="I480" s="28"/>
     </row>
     <row r="481" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F481" s="32"/>
-      <c r="G481" s="32"/>
-      <c r="H481" s="32"/>
-      <c r="I481" s="32"/>
+      <c r="F481" s="28"/>
+      <c r="G481" s="28"/>
+      <c r="H481" s="28"/>
+      <c r="I481" s="28"/>
     </row>
     <row r="482" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F482" s="32"/>
-      <c r="G482" s="32"/>
-      <c r="H482" s="32"/>
-      <c r="I482" s="32"/>
+      <c r="F482" s="28"/>
+      <c r="G482" s="28"/>
+      <c r="H482" s="28"/>
+      <c r="I482" s="28"/>
     </row>
     <row r="483" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F483" s="32"/>
-      <c r="G483" s="32"/>
-      <c r="H483" s="32"/>
-      <c r="I483" s="32"/>
+      <c r="F483" s="28"/>
+      <c r="G483" s="28"/>
+      <c r="H483" s="28"/>
+      <c r="I483" s="28"/>
     </row>
     <row r="484" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F484" s="32"/>
-      <c r="G484" s="32"/>
-      <c r="H484" s="32"/>
-      <c r="I484" s="32"/>
+      <c r="F484" s="28"/>
+      <c r="G484" s="28"/>
+      <c r="H484" s="28"/>
+      <c r="I484" s="28"/>
     </row>
     <row r="485" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F485" s="32"/>
-      <c r="G485" s="32"/>
-      <c r="H485" s="32"/>
-      <c r="I485" s="32"/>
+      <c r="F485" s="28"/>
+      <c r="G485" s="28"/>
+      <c r="H485" s="28"/>
+      <c r="I485" s="28"/>
     </row>
     <row r="486" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F486" s="32"/>
-      <c r="G486" s="32"/>
-      <c r="H486" s="32"/>
-      <c r="I486" s="32"/>
+      <c r="F486" s="28"/>
+      <c r="G486" s="28"/>
+      <c r="H486" s="28"/>
+      <c r="I486" s="28"/>
     </row>
     <row r="487" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F487" s="32"/>
-      <c r="G487" s="32"/>
-      <c r="H487" s="32"/>
-      <c r="I487" s="32"/>
+      <c r="F487" s="28"/>
+      <c r="G487" s="28"/>
+      <c r="H487" s="28"/>
+      <c r="I487" s="28"/>
     </row>
     <row r="488" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F488" s="32"/>
-      <c r="G488" s="32"/>
-      <c r="H488" s="32"/>
-      <c r="I488" s="32"/>
+      <c r="F488" s="28"/>
+      <c r="G488" s="28"/>
+      <c r="H488" s="28"/>
+      <c r="I488" s="28"/>
     </row>
     <row r="489" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F489" s="32"/>
-      <c r="G489" s="32"/>
-      <c r="H489" s="32"/>
-      <c r="I489" s="32"/>
+      <c r="F489" s="28"/>
+      <c r="G489" s="28"/>
+      <c r="H489" s="28"/>
+      <c r="I489" s="28"/>
     </row>
     <row r="490" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F490" s="32"/>
-      <c r="G490" s="32"/>
-      <c r="H490" s="32"/>
-      <c r="I490" s="32"/>
+      <c r="F490" s="28"/>
+      <c r="G490" s="28"/>
+      <c r="H490" s="28"/>
+      <c r="I490" s="28"/>
     </row>
     <row r="491" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F491" s="32"/>
-      <c r="G491" s="32"/>
-      <c r="H491" s="32"/>
-      <c r="I491" s="32"/>
+      <c r="F491" s="28"/>
+      <c r="G491" s="28"/>
+      <c r="H491" s="28"/>
+      <c r="I491" s="28"/>
     </row>
     <row r="492" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F492" s="32"/>
-      <c r="G492" s="32"/>
-      <c r="H492" s="32"/>
-      <c r="I492" s="33"/>
+      <c r="F492" s="28"/>
+      <c r="G492" s="28"/>
+      <c r="H492" s="28"/>
+      <c r="I492" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AT2:AW2"/>
     <mergeCell ref="F330:I330"/>
     <mergeCell ref="F384:I384"/>
     <mergeCell ref="F439:I439"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="F57:I57"/>
     <mergeCell ref="F112:I112"/>
     <mergeCell ref="F166:I166"/>
@@ -9978,4 +10016,444 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
+        <v>4</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36">
+        <v>7</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38">
+        <v>8</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36">
+        <v>9</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
+        <v>10</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36">
+        <v>11</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38">
+        <v>12</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36">
+        <v>13</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38">
+        <v>14</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36">
+        <v>15</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38">
+        <v>16</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36">
+        <v>17</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38">
+        <v>18</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36">
+        <v>19</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38">
+        <v>20</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36">
+        <v>21</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="38">
+        <v>22</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="36">
+        <v>23</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="38">
+        <v>24</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="36">
+        <v>25</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="38">
+        <v>26</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="36">
+        <v>27</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38">
+        <v>28</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36">
+        <v>29</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38">
+        <v>30</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="36">
+        <v>31</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="38">
+        <v>32</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="36">
+        <v>33</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="38">
+        <v>34</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="38">
+        <v>36</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="36">
+        <v>37</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="38">
+        <v>38</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="36">
+        <v>39</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="38">
+        <v>40</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="36">
+        <v>41</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="38">
+        <v>42</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="36">
+        <v>43</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="38">
+        <v>44</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="36">
+        <v>45</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="38">
+        <v>46</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="36">
+        <v>47</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="38">
+        <v>48</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="36">
+        <v>49</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="38">
+        <v>50</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="40">
+        <v>51</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" tooltip="sort by Rank" display="https://mhanational.org/issues/2020/ranking-states?order=field_rank&amp;sort=desc"/>
+    <hyperlink ref="B1" r:id="rId2" tooltip="sort by State" display="https://mhanational.org/issues/2020/ranking-states?order=field_state&amp;sort=asc"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+</worksheet>
 </file>